--- a/genshinuid_adv/Genshin All Char.xlsx
+++ b/genshinuid_adv/Genshin All Char.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="28245" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="369">
   <si>
     <t>角色</t>
   </si>
@@ -201,7 +201,7 @@
     <t>翠绿之影</t>
   </si>
   <si>
-    <t>身份西风骑士团炼金术士，师从阿贝多，
+    <t>身份西风骑士团炼金术士，师从阿贝多的兽耳娘；
 因为肖像和二创的关系而被人送外号雷莹术士（误）</t>
   </si>
   <si>
@@ -318,7 +318,7 @@
   </si>
   <si>
     <t>原神“点秋香”成员之一，
-身份万民堂大厨，瑶瑶的师妹，
+身份万民堂大厨，瑶瑶的师姐，
 人送外号枪神，锅巴发射器，璃月飞行冠军/洲际导弹真君，小哪吒（误）；
 香菱机制优秀，长柄武器基本都适用</t>
   </si>
@@ -338,7 +338,7 @@
     <t>流浪大地的乐团</t>
   </si>
   <si>
-    <t>全名谢尔·冯·露弗施洛斯·那菲多特，自称为「断罪之皇女」「幽夜净土之主宰」；
+    <t>全名菲谢尔·冯·露弗施洛斯·那菲多特，自称为「断罪之皇女」「幽夜净土之主宰」；
 身份冒险家协会调查员，班尼特的同事，
 人送外号皇女，小艾咪，奥兹发射器</t>
   </si>
@@ -436,7 +436,7 @@
   <si>
     <t>原神“又甘又刻”“合晴合里”成员之一，
 央视新闻2020年度图鉴《原神》提名代表角色，
-身份璃月玉衡星，“猫耳状”总角发扬者，屁斜剑法开创者（误），喜欢吃金丝虾球，
+身份璃月玉衡星，“猫耳状”总角发扬者，屁斜剑法开创者（误），爱吃金丝虾球，
 人送外号阿晴，刻师傅/牛杂师傅，璃月雷神，氪晴，严莉莉（大误）</t>
   </si>
   <si>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <t>又名巴巴托斯，尘世七执政之一的风神，
-唯一任次七神暨男神之二喜食苹果酒，对猫毛过敏，
+唯一任次七神暨男神之二，喜食苹果酒，对猫毛过敏，
 身份吟游诗人，四风守护的领导人，米哈游画女硬说男的典范（误），
 人送外号卖唱的，摸鱼神，诶嘿摸鱼真君/不务正业真君，巴巴脱丝</t>
   </si>
@@ -478,7 +478,8 @@
     <t>嘟嘟可故事集</t>
   </si>
   <si>
-    <t>达达利亚</t>
+    <t>达达利亚/
+「公子」</t>
   </si>
   <si>
     <t>弓藏</t>
@@ -520,7 +521,7 @@
     <t>又名摩拉克斯，尘世七执政之一的岩神，
 唯一任次七神暨男神之二，厌恶水产品，
 身份「往生堂」客卿，岩王帝君/岩王爷，众仙之祖，听书人，
-外号帝君</t>
+外号帝君，不带钱包真君</t>
   </si>
   <si>
     <t>和璞鸢</t>
@@ -542,7 +543,7 @@
     <t>辰砂之纺锤</t>
   </si>
   <si>
-    <t>白垩之子，创生原初之人，作画水平了得，炼金造诣深刻；
+    <t>白垩之子，创生原初之人，作画水平了得，炼金术造诣深刻；
 身份西风骑士团首席炼金术士，砂糖的老师，可莉的义兄；
 又名人造人，电梯批发商（误）</t>
   </si>
@@ -553,7 +554,7 @@
     <t>弹弓</t>
   </si>
   <si>
-    <t>原神“璃月三c”“又甘又刻”成员之一，师从留云借风真君，与申鹤是同门，绝对的素食主义者；
+    <t>原神“璃月三c”“又甘又刻”成员之一；半仙血统，师从留云借风真君，与申鹤是同门，绝对的素食主义者；
 身份璃月月海亭秘书，
 人送外号椰羊，王小美，咕噜下山真君/噎羊</t>
   </si>
@@ -576,14 +577,14 @@
     <t>辰砂往生录</t>
   </si>
   <si>
-    <t>相比原2+2提升10%左右</t>
+    <t>相比原2+2提升10%左右；装备贯虹需要绑定盾辅</t>
   </si>
   <si>
     <t>黑岩长枪</t>
   </si>
   <si>
     <t>又名金鹏，号「金鹏翅王」，人称「降魔大圣」，「护法仙众夜叉 」成员之一，原神“璃月三c”成员之一，钟离的友人暨下属，喜食杏仁豆腐；
-人送外号提瓦特打桩机，抬头不见低头见真君（大误）</t>
+人送外号魈上仙，提瓦特打桩机，抬头不见低头见真君（大误）</t>
   </si>
   <si>
     <t>千岩长枪</t>
@@ -609,7 +610,7 @@
     <t>追忆之注连</t>
   </si>
   <si>
-    <t>提瓦特火c蒸发反应伤害天花板</t>
+    <t>提瓦特火c蒸发反应伤害记录保持者</t>
   </si>
   <si>
     <t>罗莎莉亚</t>
@@ -656,13 +657,13 @@
     <t>旅行者（雷）</t>
   </si>
   <si>
-    <t>充能词条比套装效果重要</t>
+    <t>圣遗物选择上，充能词条比套装效果重要；</t>
   </si>
   <si>
     <t>神里绫华</t>
   </si>
   <si>
-    <t>社奉行神里家大小姐，又名白鹭公主；
+    <t>社奉行神里家大小姐，又名白鹭公主，大型连续剧《等神里》主人公（误）；
 人送外号大家gui秀（误）</t>
   </si>
   <si>
@@ -675,7 +676,7 @@
     <t>宵宫</t>
   </si>
   <si>
-    <t>长野原烟花店现任店主，与可莉并称提瓦特军火二人组（大误）；
+    <t>长野原烟花店现任店主，孩子王，与可莉并称提瓦特军火二人组（大误）；
 人送外号加特凛（误）</t>
   </si>
   <si>
@@ -691,7 +692,7 @@
     <t>沐浴龙血的剑</t>
   </si>
   <si>
-    <t>「终末番」的忍者；
+    <t>「终末番」的小小忍者，据说趁其不注意摸摸头会被跳起来打膝盖；
 人送外号柚岩龙蜥，泥头车，小狸猫</t>
   </si>
   <si>
@@ -722,7 +723,7 @@
   <si>
     <t>此身，代表巴尔泽布，尘世七执政之一的雷神；
 身世复杂，可公开身份「御建鸣神主尊大御所大人」；
-对甜食感兴趣；
+似乎对甜食感兴趣；
 人送外号煮饭婆，雷军（误），土妹子</t>
   </si>
   <si>
@@ -752,7 +753,7 @@
     <t>托马</t>
   </si>
   <si>
-    <t>社奉行神里家家政官，稻妻地头蛇；
+    <t>出身蒙德，现为社奉行神里家家政官，稻妻地头蛇；
 人送外号驻日美军/德军，狗托（误）</t>
   </si>
   <si>
@@ -765,14 +766,14 @@
     <t>白铁大剑</t>
   </si>
   <si>
-    <t>荒泷派创始人，希娜小姐头榜大哥，豆类过敏者；
+    <t>荒泷派创始人，希娜小姐头榜大哥，对豆类过敏；
 又名斗子哥，放牛的，进狱系男孩，岩丘丘萨满</t>
   </si>
   <si>
     <t>五郎</t>
   </si>
   <si>
-    <t>海祈岛大将，八重堂特邀编辑；
+    <t>既是海祈岛大将，又是八重堂特邀编辑；
 又名柴犬，希娜小姐的原型来源/中之人（误）</t>
   </si>
   <si>
@@ -782,7 +783,7 @@
     <t>申鹤</t>
   </si>
   <si>
-    <t>师从擅长聊天真君，甘雨的同门，重云的小姨妈（误）</t>
+    <t>师从留云借风（擅长聊天）真君，甘雨的同门，重云的小姨妈（误）</t>
   </si>
   <si>
     <t>角斗士的终幕礼/辰砂往生录</t>
@@ -827,7 +828,8 @@
     <t>若水</t>
   </si>
   <si>
-    <t>按伤害最优原则，除开专武选精5曚云/绝弦，平民推荐西风/弹弓</t>
+    <t>按伤害最优原则，除开专武选精5曚云/绝弦；
+考虑循环周转，推荐西风弓</t>
   </si>
   <si>
     <t>绝缘之旗印/沉沦之心</t>
@@ -864,22 +866,10 @@
     <t>千岩牢固/流浪大地的乐团</t>
   </si>
   <si>
-    <t>鹿野院平藏
-（待测试）</t>
-  </si>
-  <si>
-    <t>角斗士的终幕礼/
-追忆之注连/
-辰砂往生录/来歆余响</t>
-  </si>
-  <si>
-    <t>英文名Shikanoin Heizou，男性</t>
-  </si>
-  <si>
-    <t>天领奉行少年侦探，提瓦特第一个实装的男法器角色，人送外号“鹿野院符华”（大误）</t>
-  </si>
-  <si>
-    <t>2.8版本实装角色</t>
+    <t>鹿野院平藏</t>
+  </si>
+  <si>
+    <t>天领奉行的少年侦探，提瓦特第一个实装的男法器角色，鹿野奈奈的表弟，人送外号“鹿野符华”（大误）</t>
   </si>
   <si>
     <t>旅行者（草）
@@ -893,47 +883,51 @@
 （待测试）</t>
   </si>
   <si>
-    <t>英文名Tighnari，男性，五星草弓</t>
+    <t>英文名Tighnari，少年，五星草弓</t>
   </si>
   <si>
     <t>柯莱
 （待测试）</t>
   </si>
   <si>
-    <t>英文名Collei，女性，四星草弓</t>
+    <t>英文名Collei，少女，四星草弓</t>
   </si>
   <si>
     <t>原神官方漫画登场角色</t>
   </si>
   <si>
-    <t>多莉（暂称）
+    <t>3.0版本实装角色，【存疑】3.0版本官方赠送角色</t>
+  </si>
+  <si>
+    <t>多莉
 （待测试）</t>
   </si>
   <si>
-    <t>英文名Dori，女性，四星雷大剑</t>
+    <t>英文名Dori （全名Dori Sangemah Bay），萝莉，四星雷大剑</t>
   </si>
   <si>
     <t>白术
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Baizhu，男性，传言草系法器</t>
-  </si>
-  <si>
-    <t>璃月布卜庐药房掌柜，曾在主线任务和活动中登场；
-可能的璃月在途卫星；
-颈上所挂白蛇名为“长生”</t>
+    <t>英文名Baizhu，成男，五星草法；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">璃月布卜庐药房掌柜，曾在主线任务和活动中登场；
+</t>
+  </si>
+  <si>
+    <t>璃月在途卫星角色；颈上所挂白蛇名为“长生”</t>
   </si>
   <si>
     <t>瑶瑶
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Yaoyao，女性，传言草系长枪</t>
-  </si>
-  <si>
-    <t>原神CBT八骏图角色之一，可能的璃月在途卫星；
-大概是现在唯一一个早早公开了建模却未实装游戏的角色</t>
+    <t>英文名Yaoyao，萝莉，香菱的师妹；传言草系法器，早期曾有草系长枪的说法；</t>
+  </si>
+  <si>
+    <t>原神CBT八骏图角色之一，璃月在途卫星角色</t>
   </si>
   <si>
     <t>杰吉特
@@ -946,18 +940,19 @@
     <t>可能的须弥在途卫星角色之一</t>
   </si>
   <si>
-    <t>流浪者/
+    <t>雷电国崩（流浪者）/
+斯卡拉姆齐/
 「散兵」
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Wanderer/Scaramouche/Kunikuzushi，男性，传言雷系法器</t>
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Wanderer/Scaramouche/Kunikuzushi，少年，传言为五星雷法</t>
   </si>
   <si>
     <t>身世复杂，可公开身份为愚人众执行官第六席，曾在主线任务和活动剧情中登场</t>
   </si>
   <si>
-    <t>【存疑】传言3.2版本落地</t>
+    <t>【存疑】传言3.2或3.3版本实装</t>
   </si>
   <si>
     <t>纳芙丝
@@ -968,110 +963,135 @@
   </si>
   <si>
     <t>妮露
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Nilou，少女，五星水单手剑</t>
+  </si>
+  <si>
+    <t>解包中发现了建模，须弥卫星角色之一；传言3.1实装</t>
+  </si>
+  <si>
+    <t>伊赫法
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Nilou，女性，传言为五星水单手剑</t>
-  </si>
-  <si>
-    <t>【存疑】有传言为五星火枪，3.0落地</t>
-  </si>
-  <si>
-    <t>伊赫珐
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Ikhfa，女性</t>
+    <t>英文名Ikhfa，女性，传言为五星，成女</t>
+  </si>
+  <si>
+    <t>可能的须弥在途卫星角色之一，可能在3.6登场</t>
   </si>
   <si>
     <t>莱依拉
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Lyala，女性</t>
-  </si>
-  <si>
-    <t>希罗（暂称）
+    <t>英文名Lyala，女性，传言为四星冰单手剑，少女体型</t>
+  </si>
+  <si>
+    <t>坎蒂丝（暂称）
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Cleo，女性，传言为水系长枪</t>
-  </si>
-  <si>
-    <t>德赫雅（暂称）
+    <t>英文名Candace，曾用代号“Cleo/Kandake”，女性，传言为四星水长枪，成女体型</t>
+  </si>
+  <si>
+    <t>Faruzan
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Dehya，女性，传言为五星火大剑</t>
-  </si>
-  <si>
-    <t>海森姆
+    <t>英文名Faruzan，女性，传言为风系弓，少女体型</t>
+  </si>
+  <si>
+    <t>迪希雅
 （待实装）</t>
   </si>
   <si>
-    <t>英文名AI-Haitam/Haytham，曾用代号“苏”（Su），男性，传言为草单手剑</t>
-  </si>
-  <si>
-    <t>解包中发现了建模，须弥在途卫星角色之一</t>
-  </si>
-  <si>
-    <t>苏蒂恩/苏蒂娜（音译）
+    <t>英文名Dehya，成女，四星火大剑</t>
+  </si>
+  <si>
+    <t>解包中发现了建模，须弥卫星角色之一</t>
+  </si>
+  <si>
+    <t>艾尔海森
+（待实装）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>英文名AI-Haitam/Haytham/Hatham​，曾用代号“苏”（Su），成男，五星草单手剑</t>
+  </si>
+  <si>
+    <t>苏蒂娜
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Soutine，性别待定</t>
+    <t>英文名Soutine，女性；</t>
   </si>
   <si>
     <t>可能的须弥在途卫星角色之一；一说为愚人众执行官的其中某一席</t>
+  </si>
+  <si>
+    <t>普尔希纳
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Pursina，性别未知</t>
+  </si>
+  <si>
+    <t>可能的卫星角色，国籍不明</t>
   </si>
   <si>
     <t>纳西妲/小吉祥草王
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Nihada/Kusanali，女性，传言为五星草法；【存疑】现用中文名布尔，二测曾用名帕尔</t>
-  </si>
-  <si>
-    <t>【存疑】传言3.1或3.2版本实装落地；
-此为须弥现任草神；【存疑】前任草神英文名Solas，男性</t>
+    <t>英文名Nihada/Kusanali，萝莉，五星草法；</t>
+  </si>
+  <si>
+    <t>解包中发现了建模，传言3.1或3.2版本实装</t>
   </si>
   <si>
     <t>赛诺
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Cyno，原神官方漫画登场角色暨原神足迹PV立绘公开角色之一，传言为雷枪</t>
+    <t>英文名Cyno，少年，原神官方漫画登场角色暨原神足迹PV立绘公开角色之一，传言为五星雷枪，传言3.1实装</t>
   </si>
   <si>
     <t>旅行者（水）
 （待实装）</t>
   </si>
   <si>
-    <t>枫丹在途卫星之一</t>
-  </si>
-  <si>
-    <t>林尼
+    <t>枫丹卫星角色之一</t>
+  </si>
+  <si>
+    <t>丝柯克
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Skirk，性别与国籍均未知</t>
+  </si>
+  <si>
+    <t>传言为达达利亚之师傅，有可能在3.5-3.6登场</t>
+  </si>
+  <si>
+    <t>林尼 &amp; 琳妮特
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Lyney，原神足迹PV立绘公开角色之一</t>
-  </si>
-  <si>
-    <t>暂不清楚林尼与琳妮特是同一角色的不同形态还是两个独立的角色，这里暂时当作后者创建条目</t>
-  </si>
-  <si>
-    <t>琳妮特
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Lynette，原神足迹PV立绘公开角色之一</t>
+    <t>英文名Lyney &amp; Lynette，原神足迹PV立绘公开角色之一</t>
+  </si>
+  <si>
+    <t>【存疑】参考木偶师与提线木偶之间的关系，或许就可以理解这个角色的双子设定...</t>
   </si>
   <si>
     <t>旅行者（火）
 （待实装）</t>
   </si>
   <si>
-    <t>纳塔在途卫星之一</t>
+    <t>纳塔卫星角色之一</t>
   </si>
   <si>
     <t>伊安珊
@@ -1085,7 +1105,7 @@
 （待实装）</t>
   </si>
   <si>
-    <t>至冬在途卫星之一</t>
+    <t>至冬卫星角色之一</t>
   </si>
   <si>
     <t>普契涅拉/
@@ -1093,7 +1113,7 @@
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Pulcinella，原神足迹PV立绘公开角色之一</t>
+    <t>代号Pulcinella/the Rooster，原神足迹PV立绘公开角色之一</t>
   </si>
   <si>
     <t>愚人众执行官之一</t>
@@ -1116,7 +1136,7 @@
     <t>英文名Varka，男性</t>
   </si>
   <si>
-    <t>蒙德西风骑士团团长</t>
+    <t>蒙德西风骑士团团长，可能的卫星角色</t>
   </si>
   <si>
     <t>阿葵丽雅
@@ -1129,28 +1149,69 @@
     <t>1.3解包发现，占位符状态</t>
   </si>
   <si>
-    <t>「队长」
+    <t>卡皮塔诺/
+「队长」
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Capitano</t>
-  </si>
-  <si>
-    <t>「仆人」
+    <t>代号Capitano/Captain，男性，传言五星，成男</t>
+  </si>
+  <si>
+    <t>愚人众执行官之一，可能在3.7登场</t>
+  </si>
+  <si>
+    <t>阿蕾奇诺/
+「仆人」
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Arlecchino</t>
-  </si>
-  <si>
-    <t>「富人」
+    <t>代号Arlecchino</t>
+  </si>
+  <si>
+    <t>潘塔罗涅/
+「富人」
 （待证实）</t>
   </si>
   <si>
-    <t>英文名Regrator</t>
-  </si>
-  <si>
-    <t>愚人众执行官之一，第九席，在夜兰的角色故事和传说任务中被提及</t>
+    <t>代号Pantalone/Regrator</t>
+  </si>
+  <si>
+    <t>愚人众执行官之一，第九席，在夜兰的角色故事和传说任务中被提及，传言3.0版本登场</t>
+  </si>
+  <si>
+    <t>多托雷/
+「博士」
+（待证实）</t>
+  </si>
+  <si>
+    <t>代号Dottore/the Doctor，男性，传言五星</t>
+  </si>
+  <si>
+    <t>愚人众执行官之一，可能在3.6版本登场</t>
+  </si>
+  <si>
+    <t>桑多涅/
+「木偶」
+（待证实）</t>
+  </si>
+  <si>
+    <t>代号Sandrone/Marionette，女性，传言五星，成女体型；</t>
+  </si>
+  <si>
+    <t>愚人众执行官之一，可能在4.0版本及以后登场（枫丹）</t>
+  </si>
+  <si>
+    <t>皮耶罗/
+「丑角」
+（待证实）</t>
+  </si>
+  <si>
+    <t>代号Pierro/the Jester，男性</t>
+  </si>
+  <si>
+    <t>哥伦比娅/
+「少女」
+（待证实）</t>
   </si>
   <si>
     <t>无疑酱
@@ -1186,52 +1247,67 @@
     <t>派蒙，最好的伙伴！
 身份旅行者随行向导，旅行者的外置发声器官（误）；
 外号不少，包括但不限于应急食品，外置声卡，偷吃贡品真君，会说话的小仙灵，会飞的神奇宠物，神奇海鲜，飞行矮堇瓜</t>
+  </si>
+  <si>
+    <t>其他卫星角色代号合集
+（彩蛋）</t>
+  </si>
+  <si>
+    <t>Cyanne，Eurydice，Zakhfar，Dottore，Skirk（丝柯克）</t>
+  </si>
+  <si>
+    <t>【存疑】枫丹角色卫星：Marie，Irene，
+Cordelia</t>
+  </si>
+  <si>
+    <t>【存疑】执行官卫星：Damselette/“Columbina”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="31">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+  <numFmts count="38">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="yy/m/d"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="189" formatCode="mmmmm"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="187" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="m/d"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="190" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="201" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,6 +1319,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFED7D31"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1281,7 +1363,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,37 +1394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,6 +1409,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1356,17 +1424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,7 +1440,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,19 +1484,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1480,13 +1562,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,49 +1616,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,7 +1688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,19 +1706,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,49 +1742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,32 +1752,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1837,10 +1919,38 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,6 +1979,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1879,21 +1998,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1916,15 +2020,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1938,224 +2033,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2228,49 +2323,49 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2290,6 +2385,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2339,13 +2440,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,7 +2488,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,125 +2509,206 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2580,7 +2762,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2847,44 +3029,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H436"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B257" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263:B265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2222222222222" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.4444444444444" style="9" customWidth="1"/>
-    <col min="2" max="6" width="13.3259259259259" style="21" customWidth="1"/>
-    <col min="7" max="7" width="52.6666666666667" style="22" customWidth="1"/>
-    <col min="8" max="8" width="26.3703703703704" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="11.2222222222222" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="8" customWidth="1"/>
+    <col min="2" max="6" width="14.9916666666667" style="21" customWidth="1"/>
+    <col min="7" max="7" width="59.25" style="22" customWidth="1"/>
+    <col min="8" max="8" width="29.6666666666667" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="49.75" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="49.75" customHeight="1" spans="1:7">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="49.5" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:8">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2894,9 +3076,11 @@
       <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="49" t="s">
         <v>10</v>
       </c>
@@ -2904,37 +3088,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" spans="1:8">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="H3" s="50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:8">
+    <row r="4" s="2" customFormat="1" spans="1:8">
       <c r="A4" s="26"/>
       <c r="B4" s="25" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4" s="50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="82.5" spans="1:8">
+    <row r="5" s="2" customFormat="1" ht="82.5" spans="1:8">
       <c r="A5" s="26"/>
       <c r="H5" s="51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:8">
+    <row r="6" s="2" customFormat="1" spans="1:8">
       <c r="A6" s="27"/>
       <c r="H6" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="49.5" spans="1:8">
+    <row r="7" s="3" customFormat="1" ht="49.5" spans="1:8">
       <c r="A7" s="28" t="s">
         <v>18</v>
       </c>
@@ -2950,6 +3142,7 @@
       <c r="E7" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="52" t="s">
         <v>23</v>
       </c>
@@ -2957,7 +3150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:7">
+    <row r="8" s="3" customFormat="1" spans="1:7">
       <c r="A8" s="30"/>
       <c r="B8" s="29" t="s">
         <v>25</v>
@@ -2971,27 +3164,30 @@
       <c r="E8" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="54"/>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:7">
+    <row r="9" s="3" customFormat="1" spans="1:7">
       <c r="A9" s="30"/>
       <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="54"/>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:7">
+    <row r="10" s="3" customFormat="1" spans="1:7">
       <c r="A10" s="30"/>
       <c r="G10" s="54"/>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:7">
+    <row r="11" s="3" customFormat="1" spans="1:7">
       <c r="A11" s="31"/>
       <c r="G11" s="54"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="49.5" spans="1:7">
+    <row r="12" s="4" customFormat="1" ht="49.5" spans="1:7">
       <c r="A12" s="32" t="s">
         <v>31</v>
       </c>
@@ -3001,14 +3197,16 @@
       <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:7">
+    <row r="13" s="4" customFormat="1" spans="1:7">
       <c r="A13" s="34"/>
       <c r="B13" s="33" t="s">
         <v>36</v>
@@ -3016,6 +3214,7 @@
       <c r="C13" s="33" t="s">
         <v>37</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="33" t="s">
         <v>34</v>
       </c>
@@ -3024,7 +3223,7 @@
       </c>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:7">
+    <row r="14" s="4" customFormat="1" spans="1:7">
       <c r="A14" s="34"/>
       <c r="B14" s="33" t="s">
         <v>38</v>
@@ -3032,20 +3231,22 @@
       <c r="C14" s="33" t="s">
         <v>39</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="33" t="s">
         <v>40</v>
       </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:7">
+    <row r="15" s="4" customFormat="1" spans="1:7">
       <c r="A15" s="34"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:7">
+    <row r="16" s="4" customFormat="1" spans="1:7">
       <c r="A16" s="35"/>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" s="6" customFormat="1" ht="49.5" spans="1:7">
+    <row r="17" s="5" customFormat="1" ht="49.5" spans="1:7">
       <c r="A17" s="36" t="s">
         <v>41</v>
       </c>
@@ -3055,39 +3256,44 @@
       <c r="C17" s="37" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:7">
+    <row r="18" s="5" customFormat="1" spans="1:7">
       <c r="A18" s="38"/>
       <c r="C18" s="37" t="s">
         <v>46</v>
       </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="37" t="s">
         <v>47</v>
       </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="58"/>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:7">
+    <row r="19" s="5" customFormat="1" spans="1:7">
       <c r="A19" s="38"/>
       <c r="E19" s="37" t="s">
         <v>48</v>
       </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="58"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:7">
+    <row r="20" s="5" customFormat="1" spans="1:7">
       <c r="A20" s="38"/>
       <c r="G20" s="58"/>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:7">
+    <row r="21" s="5" customFormat="1" spans="1:7">
       <c r="A21" s="39"/>
       <c r="G21" s="58"/>
     </row>
-    <row r="22" s="7" customFormat="1" ht="66" spans="1:7">
+    <row r="22" s="6" customFormat="1" ht="66" spans="1:7">
       <c r="A22" s="40" t="s">
         <v>49</v>
       </c>
@@ -3103,27 +3309,28 @@
       <c r="E22" s="41" t="s">
         <v>53</v>
       </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:7">
+    <row r="23" s="6" customFormat="1" spans="1:7">
       <c r="A23" s="42"/>
       <c r="G23" s="60"/>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:7">
+    <row r="24" s="6" customFormat="1" spans="1:7">
       <c r="A24" s="42"/>
       <c r="G24" s="60"/>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:7">
+    <row r="25" s="6" customFormat="1" spans="1:7">
       <c r="A25" s="42"/>
       <c r="G25" s="60"/>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:7">
+    <row r="26" s="6" customFormat="1" spans="1:7">
       <c r="A26" s="43"/>
       <c r="G26" s="60"/>
     </row>
-    <row r="27" s="8" customFormat="1" ht="33" spans="1:7">
+    <row r="27" s="7" customFormat="1" ht="33" spans="1:7">
       <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
@@ -3136,27 +3343,28 @@
       <c r="E27" s="45" t="s">
         <v>57</v>
       </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" spans="1:7">
+    <row r="28" s="7" customFormat="1" spans="1:7">
       <c r="A28" s="46"/>
       <c r="G28" s="62"/>
     </row>
-    <row r="29" s="8" customFormat="1" spans="1:7">
+    <row r="29" s="7" customFormat="1" spans="1:7">
       <c r="A29" s="46"/>
       <c r="G29" s="62"/>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:7">
+    <row r="30" s="7" customFormat="1" spans="1:7">
       <c r="A30" s="46"/>
       <c r="G30" s="62"/>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:7">
+    <row r="31" s="7" customFormat="1" spans="1:7">
       <c r="A31" s="47"/>
       <c r="G31" s="62"/>
     </row>
-    <row r="32" s="7" customFormat="1" ht="49.5" spans="1:7">
+    <row r="32" s="6" customFormat="1" ht="49.5" spans="1:7">
       <c r="A32" s="40" t="s">
         <v>59</v>
       </c>
@@ -3172,15 +3380,17 @@
       <c r="E32" s="41" t="s">
         <v>22</v>
       </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:7">
+    <row r="33" s="6" customFormat="1" spans="1:7">
       <c r="A33" s="42"/>
       <c r="C33" s="41" t="s">
         <v>63</v>
       </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="41" t="s">
         <v>64</v>
       </c>
@@ -3189,19 +3399,19 @@
       </c>
       <c r="G33" s="60"/>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:7">
+    <row r="34" s="6" customFormat="1" spans="1:7">
       <c r="A34" s="42"/>
       <c r="G34" s="60"/>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:7">
+    <row r="35" s="6" customFormat="1" spans="1:7">
       <c r="A35" s="42"/>
       <c r="G35" s="60"/>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:7">
+    <row r="36" s="6" customFormat="1" spans="1:7">
       <c r="A36" s="43"/>
       <c r="G36" s="60"/>
     </row>
-    <row r="37" s="6" customFormat="1" ht="49.5" spans="1:7">
+    <row r="37" s="5" customFormat="1" ht="49.5" spans="1:7">
       <c r="A37" s="36" t="s">
         <v>65</v>
       </c>
@@ -3211,6 +3421,7 @@
       <c r="C37" s="37" t="s">
         <v>51</v>
       </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="37" t="s">
         <v>67</v>
       </c>
@@ -3221,7 +3432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:7">
+    <row r="38" s="5" customFormat="1" spans="1:7">
       <c r="A38" s="38"/>
       <c r="B38" s="37" t="s">
         <v>38</v>
@@ -3229,9 +3440,12 @@
       <c r="C38" s="37" t="s">
         <v>33</v>
       </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="58"/>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:7">
+    <row r="39" s="5" customFormat="1" spans="1:7">
       <c r="A39" s="38"/>
       <c r="B39" s="37" t="s">
         <v>36</v>
@@ -3239,17 +3453,20 @@
       <c r="C39" s="37" t="s">
         <v>37</v>
       </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="58"/>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:7">
+    <row r="40" s="5" customFormat="1" spans="1:7">
       <c r="A40" s="38"/>
       <c r="G40" s="58"/>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:7">
+    <row r="41" s="5" customFormat="1" spans="1:7">
       <c r="A41" s="39"/>
       <c r="G41" s="58"/>
     </row>
-    <row r="42" s="4" customFormat="1" ht="33" spans="1:7">
+    <row r="42" s="3" customFormat="1" ht="33" spans="1:7">
       <c r="A42" s="28" t="s">
         <v>70</v>
       </c>
@@ -3259,36 +3476,40 @@
       <c r="C42" s="29" t="s">
         <v>46</v>
       </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="1" spans="1:7">
+    <row r="43" s="3" customFormat="1" spans="1:7">
       <c r="A43" s="30"/>
       <c r="C43" s="29" t="s">
         <v>73</v>
       </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="29" t="s">
         <v>74</v>
       </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="54"/>
     </row>
-    <row r="44" s="4" customFormat="1" spans="1:7">
+    <row r="44" s="3" customFormat="1" spans="1:7">
       <c r="A44" s="30"/>
       <c r="G44" s="54"/>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:7">
+    <row r="45" s="3" customFormat="1" spans="1:7">
       <c r="A45" s="30"/>
       <c r="G45" s="54"/>
     </row>
-    <row r="46" s="4" customFormat="1" spans="1:7">
+    <row r="46" s="3" customFormat="1" spans="1:7">
       <c r="A46" s="31"/>
       <c r="G46" s="54"/>
     </row>
-    <row r="47" s="5" customFormat="1" ht="49.5" spans="1:7">
+    <row r="47" s="4" customFormat="1" ht="49.5" spans="1:7">
       <c r="A47" s="32" t="s">
         <v>75</v>
       </c>
@@ -3298,14 +3519,16 @@
       <c r="C47" s="33" t="s">
         <v>46</v>
       </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="33" t="s">
         <v>30</v>
       </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:7">
+    <row r="48" s="4" customFormat="1" spans="1:7">
       <c r="A48" s="34"/>
       <c r="B48" s="33" t="s">
         <v>71</v>
@@ -3313,6 +3536,7 @@
       <c r="C48" s="33" t="s">
         <v>78</v>
       </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="33" t="s">
         <v>30</v>
       </c>
@@ -3321,7 +3545,7 @@
       </c>
       <c r="G48" s="56"/>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:7">
+    <row r="49" s="4" customFormat="1" spans="1:7">
       <c r="A49" s="34"/>
       <c r="B49" s="33" t="s">
         <v>80</v>
@@ -3329,6 +3553,7 @@
       <c r="C49" s="33" t="s">
         <v>81</v>
       </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="33" t="s">
         <v>30</v>
       </c>
@@ -3337,36 +3562,40 @@
       </c>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:7">
+    <row r="50" s="4" customFormat="1" spans="1:7">
       <c r="A50" s="34"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>83</v>
       </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="33" t="s">
         <v>47</v>
       </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="56"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:7">
+    <row r="51" s="4" customFormat="1" spans="1:7">
       <c r="A51" s="35"/>
       <c r="E51" s="33" t="s">
         <v>48</v>
       </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" s="8" customFormat="1" ht="82.5" spans="1:7">
+    <row r="52" s="7" customFormat="1" ht="82.5" spans="1:7">
       <c r="A52" s="44" t="s">
         <v>84</v>
       </c>
       <c r="B52" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="45" t="s">
         <v>57</v>
       </c>
@@ -3377,35 +3606,36 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="1" spans="1:7">
+    <row r="53" s="7" customFormat="1" spans="1:7">
       <c r="A53" s="46"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="62"/>
     </row>
-    <row r="54" s="8" customFormat="1" spans="1:7">
+    <row r="54" s="7" customFormat="1" spans="1:7">
       <c r="A54" s="46"/>
       <c r="G54" s="62"/>
     </row>
-    <row r="55" s="8" customFormat="1" spans="1:7">
+    <row r="55" s="7" customFormat="1" spans="1:7">
       <c r="A55" s="46"/>
       <c r="G55" s="62"/>
     </row>
-    <row r="56" s="8" customFormat="1" spans="1:7">
+    <row r="56" s="7" customFormat="1" spans="1:7">
       <c r="A56" s="47"/>
       <c r="G56" s="62"/>
     </row>
-    <row r="57" s="6" customFormat="1" ht="82.5" spans="1:7">
+    <row r="57" s="5" customFormat="1" ht="82.5" spans="1:7">
       <c r="A57" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="37" t="s">
@@ -3415,69 +3645,69 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" s="6" customFormat="1" spans="1:7">
+    <row r="58" s="5" customFormat="1" spans="1:7">
       <c r="A58" s="38"/>
       <c r="F58" s="37"/>
       <c r="G58" s="58"/>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:7">
+    <row r="59" s="5" customFormat="1" spans="1:7">
       <c r="A59" s="38"/>
       <c r="G59" s="58"/>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:7">
+    <row r="60" s="5" customFormat="1" spans="1:7">
       <c r="A60" s="38"/>
       <c r="G60" s="58"/>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:7">
+    <row r="61" s="5" customFormat="1" spans="1:7">
       <c r="A61" s="39"/>
       <c r="G61" s="58"/>
     </row>
-    <row r="62" s="5" customFormat="1" ht="66" spans="1:7">
+    <row r="62" s="4" customFormat="1" ht="66" spans="1:7">
       <c r="A62" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:7">
+    <row r="63" s="4" customFormat="1" spans="1:7">
       <c r="A63" s="34"/>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G63" s="56"/>
     </row>
-    <row r="64" s="5" customFormat="1" spans="1:7">
+    <row r="64" s="4" customFormat="1" spans="1:7">
       <c r="A64" s="34"/>
       <c r="G64" s="56"/>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:7">
+    <row r="65" s="4" customFormat="1" spans="1:7">
       <c r="A65" s="34"/>
       <c r="G65" s="56"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:7">
+    <row r="66" s="4" customFormat="1" spans="1:7">
       <c r="A66" s="35"/>
       <c r="G66" s="56"/>
     </row>
-    <row r="67" s="3" customFormat="1" ht="82.5" spans="1:7">
+    <row r="67" s="2" customFormat="1" ht="82.5" spans="1:7">
       <c r="A67" s="63" t="s">
         <v>89</v>
       </c>
@@ -3487,45 +3717,50 @@
       <c r="C67" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="2"/>
+      <c r="G67" s="70" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" s="3" customFormat="1" spans="1:7">
+    <row r="68" s="2" customFormat="1" spans="1:7">
       <c r="A68" s="26"/>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="25" t="s">
         <v>22</v>
       </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="50"/>
     </row>
-    <row r="69" s="3" customFormat="1" spans="1:7">
+    <row r="69" s="2" customFormat="1" spans="1:7">
       <c r="A69" s="26"/>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="50"/>
     </row>
-    <row r="70" s="3" customFormat="1" spans="1:7">
+    <row r="70" s="2" customFormat="1" spans="1:7">
       <c r="A70" s="26"/>
       <c r="G70" s="50"/>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:7">
+    <row r="71" s="2" customFormat="1" spans="1:7">
       <c r="A71" s="26"/>
       <c r="G71" s="50"/>
     </row>
-    <row r="72" s="5" customFormat="1" ht="66" spans="1:7">
+    <row r="72" s="4" customFormat="1" ht="66" spans="1:7">
       <c r="A72" s="32" t="s">
         <v>96</v>
       </c>
@@ -3535,6 +3770,7 @@
       <c r="C72" s="33" t="s">
         <v>97</v>
       </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="33" t="s">
         <v>34</v>
       </c>
@@ -3545,11 +3781,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:7">
+    <row r="73" s="4" customFormat="1" spans="1:7">
       <c r="A73" s="34"/>
       <c r="C73" s="33" t="s">
         <v>8</v>
       </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="33" t="s">
         <v>100</v>
       </c>
@@ -3558,24 +3795,25 @@
       </c>
       <c r="G73" s="56"/>
     </row>
-    <row r="74" s="5" customFormat="1" spans="1:7">
+    <row r="74" s="4" customFormat="1" spans="1:7">
       <c r="A74" s="34"/>
       <c r="C74" s="33" t="s">
         <v>101</v>
       </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
       <c r="G74" s="56"/>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:7">
+    <row r="75" s="4" customFormat="1" spans="1:7">
       <c r="A75" s="34"/>
       <c r="G75" s="56"/>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:7">
+    <row r="76" s="4" customFormat="1" spans="1:7">
       <c r="A76" s="35"/>
       <c r="G76" s="56"/>
     </row>
-    <row r="77" s="3" customFormat="1" ht="66" spans="1:7">
+    <row r="77" s="2" customFormat="1" ht="66" spans="1:7">
       <c r="A77" s="24" t="s">
         <v>102</v>
       </c>
@@ -3585,14 +3823,16 @@
       <c r="C77" s="25" t="s">
         <v>103</v>
       </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" spans="1:7">
+    <row r="78" s="2" customFormat="1" spans="1:7">
       <c r="A78" s="26"/>
       <c r="B78" s="25" t="s">
         <v>105</v>
@@ -3600,12 +3840,14 @@
       <c r="C78" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="D78" s="2"/>
       <c r="E78" s="25" t="s">
         <v>53</v>
       </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="50"/>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:7">
+    <row r="79" s="2" customFormat="1" spans="1:7">
       <c r="A79" s="26"/>
       <c r="B79" s="25" t="s">
         <v>19</v>
@@ -3613,77 +3855,82 @@
       <c r="C79" s="25" t="s">
         <v>106</v>
       </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="25" t="s">
         <v>107</v>
       </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="50"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:7">
+    <row r="80" s="2" customFormat="1" spans="1:7">
       <c r="A80" s="26"/>
+      <c r="B80" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="G80" s="50"/>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:7">
+    <row r="81" s="2" customFormat="1" spans="1:7">
       <c r="A81" s="27"/>
       <c r="G81" s="50"/>
     </row>
-    <row r="82" s="3" customFormat="1" ht="66" spans="1:7">
+    <row r="82" s="2" customFormat="1" ht="66" spans="1:7">
       <c r="A82" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G82" s="51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:7">
+    <row r="83" s="2" customFormat="1" spans="1:7">
       <c r="A83" s="26"/>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G83" s="50"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="1:7">
+    <row r="84" s="2" customFormat="1" spans="1:7">
       <c r="A84" s="26"/>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G84" s="50"/>
     </row>
-    <row r="85" s="3" customFormat="1" spans="1:7">
+    <row r="85" s="2" customFormat="1" spans="1:7">
       <c r="A85" s="26"/>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G85" s="50"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="1:7">
+    <row r="86" s="2" customFormat="1" spans="1:7">
       <c r="A86" s="26"/>
       <c r="G86" s="50"/>
     </row>
-    <row r="87" s="8" customFormat="1" ht="66" spans="1:7">
+    <row r="87" s="7" customFormat="1" ht="66" spans="1:7">
       <c r="A87" s="44" t="s">
         <v>112</v>
       </c>
@@ -3693,14 +3940,16 @@
       <c r="C87" s="45" t="s">
         <v>103</v>
       </c>
+      <c r="D87" s="7"/>
       <c r="E87" s="45" t="s">
         <v>57</v>
       </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="88" s="8" customFormat="1" spans="1:7">
+    <row r="88" s="7" customFormat="1" spans="1:7">
       <c r="A88" s="46"/>
       <c r="B88" s="45" t="s">
         <v>19</v>
@@ -3708,6 +3957,7 @@
       <c r="C88" s="45" t="s">
         <v>20</v>
       </c>
+      <c r="D88" s="7"/>
       <c r="E88" s="45" t="s">
         <v>68</v>
       </c>
@@ -3716,7 +3966,7 @@
       </c>
       <c r="G88" s="62"/>
     </row>
-    <row r="89" s="8" customFormat="1" spans="1:7">
+    <row r="89" s="7" customFormat="1" spans="1:7">
       <c r="A89" s="46"/>
       <c r="B89" s="45" t="s">
         <v>60</v>
@@ -3724,12 +3974,14 @@
       <c r="C89" s="45" t="s">
         <v>29</v>
       </c>
+      <c r="D89" s="7"/>
       <c r="E89" s="45" t="s">
         <v>30</v>
       </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="62"/>
     </row>
-    <row r="90" s="8" customFormat="1" spans="1:7">
+    <row r="90" s="7" customFormat="1" spans="1:7">
       <c r="A90" s="46"/>
       <c r="B90" s="45" t="s">
         <v>114</v>
@@ -3737,16 +3989,19 @@
       <c r="C90" s="45" t="s">
         <v>115</v>
       </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="62"/>
     </row>
-    <row r="91" s="8" customFormat="1" spans="1:7">
+    <row r="91" s="7" customFormat="1" spans="1:7">
       <c r="A91" s="47"/>
       <c r="C91" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G91" s="62"/>
     </row>
-    <row r="92" s="4" customFormat="1" ht="49.5" spans="1:7">
+    <row r="92" s="3" customFormat="1" ht="49.5" spans="1:7">
       <c r="A92" s="28" t="s">
         <v>116</v>
       </c>
@@ -3756,14 +4011,16 @@
       <c r="C92" s="29" t="s">
         <v>61</v>
       </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="29" t="s">
         <v>117</v>
       </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" s="4" customFormat="1" spans="1:7">
+    <row r="93" s="3" customFormat="1" spans="1:7">
       <c r="A93" s="30"/>
       <c r="B93" s="29" t="s">
         <v>25</v>
@@ -3771,12 +4028,14 @@
       <c r="C93" s="29" t="s">
         <v>29</v>
       </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="29" t="s">
         <v>119</v>
       </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="54"/>
     </row>
-    <row r="94" s="4" customFormat="1" spans="1:7">
+    <row r="94" s="3" customFormat="1" spans="1:7">
       <c r="A94" s="30"/>
       <c r="B94" s="29" t="s">
         <v>105</v>
@@ -3784,17 +4043,19 @@
       <c r="C94" s="29" t="s">
         <v>120</v>
       </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="29" t="s">
         <v>53</v>
       </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="54"/>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:7">
+    <row r="95" s="3" customFormat="1" spans="1:7">
       <c r="A95" s="30"/>
       <c r="B95" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E95" s="29" t="s">
@@ -3805,11 +4066,11 @@
       </c>
       <c r="G95" s="54"/>
     </row>
-    <row r="96" s="4" customFormat="1" spans="1:7">
+    <row r="96" s="3" customFormat="1" spans="1:7">
       <c r="A96" s="31"/>
       <c r="G96" s="54"/>
     </row>
-    <row r="97" s="7" customFormat="1" ht="49.5" spans="1:7">
+    <row r="97" s="6" customFormat="1" ht="49.5" spans="1:7">
       <c r="A97" s="64" t="s">
         <v>121</v>
       </c>
@@ -3825,11 +4086,12 @@
       <c r="E97" s="41" t="s">
         <v>22</v>
       </c>
+      <c r="F97" s="6"/>
       <c r="G97" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" s="7" customFormat="1" spans="1:7">
+    <row r="98" s="6" customFormat="1" spans="1:7">
       <c r="A98" s="65"/>
       <c r="B98" s="41" t="s">
         <v>38</v>
@@ -3837,12 +4099,14 @@
       <c r="C98" s="41" t="s">
         <v>37</v>
       </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="41" t="s">
         <v>9</v>
       </c>
+      <c r="F98" s="6"/>
       <c r="G98" s="60"/>
     </row>
-    <row r="99" s="7" customFormat="1" spans="1:7">
+    <row r="99" s="6" customFormat="1" spans="1:7">
       <c r="A99" s="65"/>
       <c r="C99" s="41" t="s">
         <v>123</v>
@@ -3850,9 +4114,10 @@
       <c r="E99" s="41" t="s">
         <v>119</v>
       </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="60"/>
     </row>
-    <row r="100" s="7" customFormat="1" spans="1:7">
+    <row r="100" s="6" customFormat="1" spans="1:7">
       <c r="A100" s="65"/>
       <c r="C100" s="41" t="s">
         <v>124</v>
@@ -3865,7 +4130,7 @@
       </c>
       <c r="G100" s="60"/>
     </row>
-    <row r="101" s="7" customFormat="1" spans="1:7">
+    <row r="101" s="6" customFormat="1" spans="1:7">
       <c r="A101" s="66"/>
       <c r="E101" s="41" t="s">
         <v>64</v>
@@ -3875,7 +4140,7 @@
       </c>
       <c r="G101" s="60"/>
     </row>
-    <row r="102" s="5" customFormat="1" ht="82.5" spans="1:7">
+    <row r="102" s="4" customFormat="1" ht="82.5" spans="1:7">
       <c r="A102" s="32" t="s">
         <v>125</v>
       </c>
@@ -3885,14 +4150,16 @@
       <c r="C102" s="33" t="s">
         <v>29</v>
       </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="33" t="s">
         <v>126</v>
       </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="55" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:7">
+    <row r="103" s="4" customFormat="1" spans="1:7">
       <c r="A103" s="34"/>
       <c r="B103" s="33" t="s">
         <v>60</v>
@@ -3900,6 +4167,7 @@
       <c r="C103" s="33" t="s">
         <v>63</v>
       </c>
+      <c r="D103" s="4"/>
       <c r="E103" s="33" t="s">
         <v>34</v>
       </c>
@@ -3908,11 +4176,13 @@
       </c>
       <c r="G103" s="56"/>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:7">
+    <row r="104" s="4" customFormat="1" spans="1:7">
       <c r="A104" s="34"/>
       <c r="B104" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="33" t="s">
         <v>128</v>
       </c>
@@ -3921,7 +4191,7 @@
       </c>
       <c r="G104" s="56"/>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:7">
+    <row r="105" s="4" customFormat="1" spans="1:7">
       <c r="A105" s="34"/>
       <c r="E105" s="33" t="s">
         <v>128</v>
@@ -3929,12 +4199,12 @@
       <c r="F105" s="33"/>
       <c r="G105" s="56"/>
     </row>
-    <row r="106" s="5" customFormat="1" spans="1:7">
+    <row r="106" s="4" customFormat="1" spans="1:7">
       <c r="A106" s="35"/>
       <c r="E106" s="33"/>
       <c r="G106" s="56"/>
     </row>
-    <row r="107" s="8" customFormat="1" ht="66" spans="1:7">
+    <row r="107" s="7" customFormat="1" ht="66" spans="1:7">
       <c r="A107" s="44" t="s">
         <v>129</v>
       </c>
@@ -3950,11 +4220,12 @@
       <c r="E107" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G107" s="69" t="s">
+      <c r="F107" s="7"/>
+      <c r="G107" s="71" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:7">
+    <row r="108" s="7" customFormat="1" spans="1:7">
       <c r="A108" s="46"/>
       <c r="B108" s="45" t="s">
         <v>14</v>
@@ -3962,15 +4233,16 @@
       <c r="C108" s="45" t="s">
         <v>132</v>
       </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="45" t="s">
         <v>57</v>
       </c>
       <c r="F108" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="70"/>
-    </row>
-    <row r="109" s="8" customFormat="1" spans="1:7">
+      <c r="G108" s="72"/>
+    </row>
+    <row r="109" s="7" customFormat="1" spans="1:7">
       <c r="A109" s="46"/>
       <c r="B109" s="45" t="s">
         <v>133</v>
@@ -3978,12 +4250,14 @@
       <c r="C109" s="45" t="s">
         <v>134</v>
       </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="45" t="s">
         <v>22</v>
       </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="62"/>
     </row>
-    <row r="110" s="8" customFormat="1" spans="1:7">
+    <row r="110" s="7" customFormat="1" spans="1:7">
       <c r="A110" s="46"/>
       <c r="B110" s="45" t="s">
         <v>7</v>
@@ -3993,75 +4267,84 @@
       </c>
       <c r="G110" s="62"/>
     </row>
-    <row r="111" s="8" customFormat="1" spans="1:7">
+    <row r="111" s="7" customFormat="1" spans="1:7">
       <c r="A111" s="47"/>
       <c r="G111" s="62"/>
     </row>
-    <row r="112" s="3" customFormat="1" ht="66" spans="1:7">
+    <row r="112" s="2" customFormat="1" ht="66" spans="1:7">
       <c r="A112" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G112" s="71" t="s">
+      <c r="F112" s="2"/>
+      <c r="G112" s="73" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="113" s="3" customFormat="1" spans="1:7">
+    <row r="113" s="2" customFormat="1" spans="1:7">
       <c r="A113" s="68"/>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="25" t="s">
         <v>74</v>
       </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="50"/>
     </row>
-    <row r="114" s="3" customFormat="1" spans="1:7">
+    <row r="114" s="2" customFormat="1" spans="1:7">
       <c r="A114" s="68"/>
       <c r="B114" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="25" t="s">
         <v>98</v>
       </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="50"/>
     </row>
-    <row r="115" s="3" customFormat="1" spans="1:7">
+    <row r="115" s="2" customFormat="1" spans="1:7">
       <c r="A115" s="68"/>
       <c r="B115" s="25" t="s">
         <v>32</v>
       </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="25" t="s">
         <v>47</v>
       </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="50"/>
     </row>
-    <row r="116" s="3" customFormat="1" spans="1:7">
+    <row r="116" s="2" customFormat="1" spans="1:7">
       <c r="A116" s="68"/>
       <c r="G116" s="50"/>
     </row>
-    <row r="117" s="7" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A117" s="64" t="s">
+    <row r="117" s="6" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A117" s="69" t="s">
         <v>139</v>
       </c>
       <c r="B117" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D117" s="41" t="s">
@@ -4077,50 +4360,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" s="7" customFormat="1" spans="1:7">
+    <row r="118" s="6" customFormat="1" spans="1:7">
       <c r="A118" s="42"/>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C118" s="41" t="s">
         <v>143</v>
       </c>
+      <c r="D118" s="6"/>
       <c r="E118" s="41" t="s">
         <v>64</v>
       </c>
       <c r="F118" s="41"/>
       <c r="G118" s="60"/>
     </row>
-    <row r="119" s="7" customFormat="1" spans="1:7">
+    <row r="119" s="6" customFormat="1" spans="1:7">
       <c r="A119" s="42"/>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="41" t="s">
         <v>8</v>
       </c>
+      <c r="D119" s="6"/>
       <c r="E119" s="41"/>
+      <c r="F119" s="6"/>
       <c r="G119" s="60"/>
     </row>
-    <row r="120" s="7" customFormat="1" spans="1:7">
+    <row r="120" s="6" customFormat="1" spans="1:7">
       <c r="A120" s="42"/>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="41" t="s">
         <v>132</v>
       </c>
+      <c r="D120" s="6"/>
       <c r="E120" s="41"/>
+      <c r="F120" s="6"/>
       <c r="G120" s="60"/>
     </row>
-    <row r="121" s="7" customFormat="1" spans="1:7">
+    <row r="121" s="6" customFormat="1" spans="1:7">
       <c r="A121" s="43"/>
       <c r="B121" s="41" t="s">
         <v>14</v>
       </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
       <c r="G121" s="60"/>
     </row>
-    <row r="122" s="4" customFormat="1" ht="66" spans="1:7">
+    <row r="122" s="3" customFormat="1" ht="66" spans="1:7">
       <c r="A122" s="28" t="s">
         <v>144</v>
       </c>
@@ -4136,15 +4428,17 @@
       <c r="E122" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="F122" s="3"/>
       <c r="G122" s="53" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="123" s="4" customFormat="1" spans="1:7">
+    <row r="123" s="3" customFormat="1" spans="1:7">
       <c r="A123" s="30"/>
       <c r="C123" s="29" t="s">
         <v>132</v>
       </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="29" t="s">
         <v>53</v>
       </c>
@@ -4153,42 +4447,44 @@
       </c>
       <c r="G123" s="54"/>
     </row>
-    <row r="124" s="4" customFormat="1" spans="1:7">
+    <row r="124" s="3" customFormat="1" spans="1:7">
       <c r="A124" s="30"/>
       <c r="E124" s="29" t="s">
         <v>53</v>
       </c>
+      <c r="F124" s="3"/>
       <c r="G124" s="54"/>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:7">
+    <row r="125" s="3" customFormat="1" spans="1:7">
       <c r="A125" s="30"/>
       <c r="G125" s="54"/>
     </row>
-    <row r="126" s="4" customFormat="1" spans="1:7">
+    <row r="126" s="3" customFormat="1" spans="1:7">
       <c r="A126" s="31"/>
       <c r="G126" s="54"/>
     </row>
-    <row r="127" s="6" customFormat="1" ht="66" spans="1:7">
+    <row r="127" s="5" customFormat="1" ht="66" spans="1:7">
       <c r="A127" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C127" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="37" t="s">
         <v>119</v>
       </c>
+      <c r="F127" s="5"/>
       <c r="G127" s="57" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" s="6" customFormat="1" spans="1:7">
+    <row r="128" s="5" customFormat="1" spans="1:7">
       <c r="A128" s="38"/>
       <c r="B128" s="37" t="s">
         <v>152</v>
@@ -4196,6 +4492,7 @@
       <c r="C128" s="37" t="s">
         <v>95</v>
       </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="37" t="s">
         <v>119</v>
       </c>
@@ -4204,9 +4501,9 @@
       </c>
       <c r="G128" s="58"/>
     </row>
-    <row r="129" s="6" customFormat="1" spans="1:7">
+    <row r="129" s="5" customFormat="1" spans="1:7">
       <c r="A129" s="38"/>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E129" s="37" t="s">
@@ -4217,15 +4514,15 @@
       </c>
       <c r="G129" s="58"/>
     </row>
-    <row r="130" s="6" customFormat="1" spans="1:7">
+    <row r="130" s="5" customFormat="1" spans="1:7">
       <c r="A130" s="38"/>
       <c r="G130" s="58"/>
     </row>
-    <row r="131" s="6" customFormat="1" spans="1:7">
+    <row r="131" s="5" customFormat="1" spans="1:7">
       <c r="A131" s="39"/>
       <c r="G131" s="58"/>
     </row>
-    <row r="132" s="3" customFormat="1" ht="33" spans="1:7">
+    <row r="132" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A132" s="24" t="s">
         <v>154</v>
       </c>
@@ -4235,14 +4532,16 @@
       <c r="C132" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:7">
+    <row r="133" s="2" customFormat="1" spans="1:7">
       <c r="A133" s="26"/>
       <c r="B133" s="25" t="s">
         <v>71</v>
@@ -4250,6 +4549,7 @@
       <c r="C133" s="25" t="s">
         <v>78</v>
       </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="25" t="s">
         <v>30</v>
       </c>
@@ -4258,7 +4558,7 @@
       </c>
       <c r="G133" s="50"/>
     </row>
-    <row r="134" s="3" customFormat="1" spans="1:7">
+    <row r="134" s="2" customFormat="1" spans="1:7">
       <c r="A134" s="26"/>
       <c r="B134" s="25" t="s">
         <v>80</v>
@@ -4266,6 +4566,7 @@
       <c r="C134" s="25" t="s">
         <v>81</v>
       </c>
+      <c r="D134" s="2"/>
       <c r="E134" s="25" t="s">
         <v>30</v>
       </c>
@@ -4274,7 +4575,7 @@
       </c>
       <c r="G134" s="50"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="1:7">
+    <row r="135" s="2" customFormat="1" spans="1:7">
       <c r="A135" s="26"/>
       <c r="B135" s="25" t="s">
         <v>42</v>
@@ -4282,25 +4583,29 @@
       <c r="C135" s="25" t="s">
         <v>83</v>
       </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="25" t="s">
         <v>47</v>
       </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="50"/>
     </row>
-    <row r="136" s="3" customFormat="1" spans="1:7">
+    <row r="136" s="2" customFormat="1" spans="1:7">
       <c r="A136" s="27"/>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C136" s="25" t="s">
         <v>43</v>
       </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="25" t="s">
         <v>48</v>
       </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="50"/>
     </row>
-    <row r="137" s="6" customFormat="1" ht="49.5" spans="1:7">
+    <row r="137" s="5" customFormat="1" ht="49.5" spans="1:7">
       <c r="A137" s="36" t="s">
         <v>156</v>
       </c>
@@ -4310,17 +4615,18 @@
       <c r="C137" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E137" s="37" t="s">
         <v>119</v>
       </c>
+      <c r="F137" s="5"/>
       <c r="G137" s="57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138" s="6" customFormat="1" spans="1:7">
+    <row r="138" s="5" customFormat="1" spans="1:7">
       <c r="A138" s="38"/>
       <c r="B138" s="37" t="s">
         <v>60</v>
@@ -4333,7 +4639,7 @@
       </c>
       <c r="G138" s="58"/>
     </row>
-    <row r="139" s="6" customFormat="1" spans="1:7">
+    <row r="139" s="5" customFormat="1" spans="1:7">
       <c r="A139" s="38"/>
       <c r="E139" s="37" t="s">
         <v>67</v>
@@ -4343,19 +4649,19 @@
       </c>
       <c r="G139" s="58"/>
     </row>
-    <row r="140" s="6" customFormat="1" spans="1:7">
+    <row r="140" s="5" customFormat="1" spans="1:7">
       <c r="A140" s="38"/>
       <c r="G140" s="58"/>
     </row>
-    <row r="141" s="6" customFormat="1" spans="1:7">
+    <row r="141" s="5" customFormat="1" spans="1:7">
       <c r="A141" s="39"/>
       <c r="G141" s="58"/>
     </row>
-    <row r="142" s="4" customFormat="1" ht="66" spans="1:7">
+    <row r="142" s="3" customFormat="1" ht="66" spans="1:7">
       <c r="A142" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="29" t="s">
@@ -4367,11 +4673,12 @@
       <c r="E142" s="29" t="s">
         <v>98</v>
       </c>
+      <c r="F142" s="3"/>
       <c r="G142" s="53" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143" s="4" customFormat="1" spans="1:7">
+    <row r="143" s="3" customFormat="1" spans="1:7">
       <c r="A143" s="30"/>
       <c r="B143" s="29" t="s">
         <v>133</v>
@@ -4383,9 +4690,10 @@
       <c r="E143" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="54"/>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:7">
+    <row r="144" s="3" customFormat="1" spans="1:7">
       <c r="A144" s="30"/>
       <c r="B144" s="29" t="s">
         <v>163</v>
@@ -4395,25 +4703,25 @@
       </c>
       <c r="G144" s="54"/>
     </row>
-    <row r="145" s="4" customFormat="1" spans="1:7">
+    <row r="145" s="3" customFormat="1" spans="1:7">
       <c r="A145" s="30"/>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G145" s="54"/>
     </row>
-    <row r="146" s="4" customFormat="1" spans="1:7">
+    <row r="146" s="3" customFormat="1" spans="1:7">
       <c r="A146" s="31"/>
       <c r="G146" s="54"/>
     </row>
-    <row r="147" s="8" customFormat="1" spans="1:7">
+    <row r="147" s="7" customFormat="1" spans="1:7">
       <c r="A147" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D147" s="45" t="s">
@@ -4422,18 +4730,20 @@
       <c r="E147" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="G147" s="75" t="s">
+      <c r="F147" s="7"/>
+      <c r="G147" s="77" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148" s="8" customFormat="1" ht="66" spans="1:7">
+    <row r="148" s="7" customFormat="1" ht="66" spans="1:7">
       <c r="A148" s="46"/>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C148" s="45" t="s">
         <v>169</v>
       </c>
+      <c r="D148" s="7"/>
       <c r="E148" s="45" t="s">
         <v>57</v>
       </c>
@@ -4444,7 +4754,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="149" s="8" customFormat="1" spans="1:7">
+    <row r="149" s="7" customFormat="1" spans="1:7">
       <c r="A149" s="46"/>
       <c r="B149" s="45" t="s">
         <v>153</v>
@@ -4452,25 +4762,26 @@
       <c r="C149" s="45" t="s">
         <v>171</v>
       </c>
+      <c r="D149" s="7"/>
       <c r="E149" s="45"/>
       <c r="F149" s="45"/>
       <c r="G149" s="62"/>
     </row>
-    <row r="150" s="8" customFormat="1" spans="1:7">
+    <row r="150" s="7" customFormat="1" spans="1:7">
       <c r="A150" s="46"/>
       <c r="B150" s="45" t="s">
         <v>172</v>
       </c>
       <c r="G150" s="62"/>
     </row>
-    <row r="151" s="8" customFormat="1" spans="1:7">
+    <row r="151" s="7" customFormat="1" spans="1:7">
       <c r="A151" s="47"/>
       <c r="B151" s="45" t="s">
         <v>173</v>
       </c>
       <c r="G151" s="62"/>
     </row>
-    <row r="152" s="3" customFormat="1" ht="66" spans="1:7">
+    <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
       <c r="A152" s="24" t="s">
         <v>174</v>
       </c>
@@ -4486,26 +4797,29 @@
       <c r="E152" s="25" t="s">
         <v>92</v>
       </c>
+      <c r="F152" s="2"/>
       <c r="G152" s="51" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" s="3" customFormat="1" spans="1:7">
+    <row r="153" s="2" customFormat="1" spans="1:7">
       <c r="A153" s="26"/>
       <c r="B153" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="25" t="s">
         <v>177</v>
       </c>
+      <c r="F153" s="2"/>
       <c r="G153" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="154" s="3" customFormat="1" spans="1:7">
+    <row r="154" s="2" customFormat="1" spans="1:7">
       <c r="A154" s="26"/>
       <c r="B154" s="25" t="s">
         <v>153</v>
@@ -4513,64 +4827,75 @@
       <c r="C154" s="25" t="s">
         <v>169</v>
       </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
       <c r="G154" s="50"/>
     </row>
-    <row r="155" s="3" customFormat="1" spans="1:7">
+    <row r="155" s="2" customFormat="1" spans="1:7">
       <c r="A155" s="26"/>
       <c r="B155" s="25"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
       <c r="G155" s="50"/>
     </row>
-    <row r="156" s="3" customFormat="1" spans="1:7">
+    <row r="156" s="2" customFormat="1" spans="1:7">
       <c r="A156" s="27"/>
       <c r="B156" s="25"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
       <c r="G156" s="50"/>
     </row>
-    <row r="157" s="4" customFormat="1" ht="33" spans="1:7">
+    <row r="157" s="3" customFormat="1" ht="33" spans="1:7">
       <c r="A157" s="30" t="s">
         <v>179</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G157" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="158" s="4" customFormat="1" spans="1:7">
+    <row r="158" s="3" customFormat="1" spans="1:7">
       <c r="A158" s="30"/>
       <c r="B158" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G158" s="54"/>
     </row>
-    <row r="159" s="4" customFormat="1" spans="1:7">
+    <row r="159" s="3" customFormat="1" spans="1:7">
       <c r="A159" s="30"/>
       <c r="B159" s="29"/>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>181</v>
       </c>
       <c r="G159" s="54"/>
     </row>
-    <row r="160" s="4" customFormat="1" spans="1:7">
+    <row r="160" s="3" customFormat="1" spans="1:7">
       <c r="A160" s="30"/>
       <c r="B160" s="29"/>
       <c r="G160" s="54"/>
     </row>
-    <row r="161" s="4" customFormat="1" spans="1:7">
+    <row r="161" s="3" customFormat="1" spans="1:7">
       <c r="A161" s="30"/>
       <c r="B161" s="29"/>
       <c r="G161" s="54"/>
     </row>
-    <row r="162" s="3" customFormat="1" ht="33" spans="1:7">
+    <row r="162" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A162" s="24" t="s">
         <v>182</v>
       </c>
@@ -4580,51 +4905,58 @@
       <c r="C162" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="25" t="s">
         <v>92</v>
       </c>
+      <c r="F162" s="2"/>
       <c r="G162" s="51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163" s="3" customFormat="1" spans="1:7">
+    <row r="163" s="2" customFormat="1" spans="1:7">
       <c r="A163" s="26"/>
       <c r="B163" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="25" t="s">
         <v>98</v>
       </c>
+      <c r="F163" s="2"/>
       <c r="G163" s="50"/>
     </row>
-    <row r="164" s="3" customFormat="1" spans="1:7">
+    <row r="164" s="2" customFormat="1" spans="1:7">
       <c r="A164" s="26"/>
       <c r="B164" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
       <c r="G164" s="50"/>
     </row>
-    <row r="165" s="3" customFormat="1" spans="1:7">
+    <row r="165" s="2" customFormat="1" spans="1:7">
       <c r="A165" s="26"/>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G165" s="50"/>
     </row>
-    <row r="166" s="3" customFormat="1" spans="1:7">
+    <row r="166" s="2" customFormat="1" spans="1:7">
       <c r="A166" s="27"/>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G166" s="50"/>
     </row>
-    <row r="167" s="4" customFormat="1" ht="49.5" spans="1:7">
+    <row r="167" s="3" customFormat="1" ht="49.5" spans="1:7">
       <c r="A167" s="28" t="s">
         <v>185</v>
       </c>
@@ -4634,14 +4966,16 @@
       <c r="C167" s="29" t="s">
         <v>46</v>
       </c>
+      <c r="D167" s="3"/>
       <c r="E167" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="168" s="4" customFormat="1" spans="1:7">
+    <row r="168" s="3" customFormat="1" spans="1:7">
       <c r="A168" s="30"/>
       <c r="B168" s="29" t="s">
         <v>80</v>
@@ -4649,6 +4983,7 @@
       <c r="C168" s="29" t="s">
         <v>78</v>
       </c>
+      <c r="D168" s="3"/>
       <c r="E168" s="29" t="s">
         <v>30</v>
       </c>
@@ -4657,7 +4992,7 @@
       </c>
       <c r="G168" s="54"/>
     </row>
-    <row r="169" s="4" customFormat="1" spans="1:7">
+    <row r="169" s="3" customFormat="1" spans="1:7">
       <c r="A169" s="30"/>
       <c r="B169" s="29" t="s">
         <v>71</v>
@@ -4665,6 +5000,7 @@
       <c r="C169" s="29" t="s">
         <v>187</v>
       </c>
+      <c r="D169" s="3"/>
       <c r="E169" s="29" t="s">
         <v>30</v>
       </c>
@@ -4673,63 +5009,75 @@
       </c>
       <c r="G169" s="54"/>
     </row>
-    <row r="170" s="4" customFormat="1" spans="1:7">
+    <row r="170" s="3" customFormat="1" spans="1:7">
       <c r="A170" s="30"/>
       <c r="B170" s="29" t="s">
         <v>82</v>
       </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="29" t="s">
         <v>48</v>
       </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="54"/>
     </row>
-    <row r="171" s="4" customFormat="1" spans="1:7">
+    <row r="171" s="3" customFormat="1" spans="1:7">
       <c r="A171" s="31"/>
       <c r="B171" s="29"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
       <c r="G171" s="54"/>
     </row>
-    <row r="172" s="8" customFormat="1" ht="33" spans="1:7">
+    <row r="172" s="7" customFormat="1" ht="33" spans="1:7">
       <c r="A172" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>189</v>
       </c>
+      <c r="D172" s="7"/>
       <c r="E172" s="45" t="s">
         <v>57</v>
       </c>
+      <c r="F172" s="7"/>
       <c r="G172" s="61" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="173" s="8" customFormat="1" spans="1:7">
+    <row r="173" s="7" customFormat="1" spans="1:7">
       <c r="A173" s="46"/>
       <c r="B173" s="45"/>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
       <c r="G173" s="62"/>
     </row>
-    <row r="174" s="8" customFormat="1" spans="1:7">
+    <row r="174" s="7" customFormat="1" spans="1:7">
       <c r="A174" s="46"/>
       <c r="C174" s="45" t="s">
         <v>26</v>
       </c>
       <c r="G174" s="62"/>
     </row>
-    <row r="175" s="8" customFormat="1" spans="1:7">
+    <row r="175" s="7" customFormat="1" spans="1:7">
       <c r="A175" s="46"/>
       <c r="G175" s="62"/>
     </row>
-    <row r="176" s="8" customFormat="1" spans="1:7">
+    <row r="176" s="7" customFormat="1" spans="1:7">
       <c r="A176" s="47"/>
       <c r="G176" s="62"/>
     </row>
-    <row r="177" s="5" customFormat="1" spans="1:7">
-      <c r="A177" s="72" t="s">
+    <row r="177" s="4" customFormat="1" spans="1:7">
+      <c r="A177" s="74" t="s">
         <v>191</v>
       </c>
       <c r="B177" s="33" t="s">
@@ -4747,39 +5095,42 @@
       <c r="F177" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G177" s="76" t="s">
+      <c r="G177" s="78" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="178" s="5" customFormat="1" ht="82.5" spans="1:7">
+    <row r="178" s="4" customFormat="1" ht="82.5" spans="1:7">
       <c r="A178" s="34"/>
       <c r="C178" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="179" s="5" customFormat="1" spans="1:7">
+    <row r="179" s="4" customFormat="1" spans="1:7">
       <c r="A179" s="34"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" s="5" customFormat="1" spans="1:7">
+    <row r="180" s="4" customFormat="1" spans="1:7">
       <c r="A180" s="34"/>
       <c r="G180" s="56"/>
     </row>
-    <row r="181" s="5" customFormat="1" spans="1:7">
+    <row r="181" s="4" customFormat="1" spans="1:7">
       <c r="A181" s="35"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" s="4" customFormat="1" ht="33" spans="1:7">
+    <row r="182" s="3" customFormat="1" ht="49.5" spans="1:7">
       <c r="A182" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D182" s="29" t="s">
@@ -4788,11 +5139,12 @@
       <c r="E182" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="F182" s="3"/>
       <c r="G182" s="53" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:7">
+    <row r="183" s="3" customFormat="1" spans="1:7">
       <c r="A183" s="30"/>
       <c r="B183" s="29" t="s">
         <v>195</v>
@@ -4800,6 +5152,7 @@
       <c r="C183" s="29" t="s">
         <v>29</v>
       </c>
+      <c r="D183" s="3"/>
       <c r="E183" s="29" t="s">
         <v>28</v>
       </c>
@@ -4808,7 +5161,7 @@
       </c>
       <c r="G183" s="54"/>
     </row>
-    <row r="184" s="4" customFormat="1" spans="1:7">
+    <row r="184" s="3" customFormat="1" spans="1:7">
       <c r="A184" s="30"/>
       <c r="B184" s="29" t="s">
         <v>60</v>
@@ -4816,28 +5169,39 @@
       <c r="C184" s="29" t="s">
         <v>196</v>
       </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
       <c r="G184" s="54"/>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:7">
+    <row r="185" s="3" customFormat="1" spans="1:7">
       <c r="A185" s="30"/>
       <c r="B185" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
       <c r="G185" s="54"/>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:7">
+    <row r="186" s="3" customFormat="1" spans="1:7">
       <c r="A186" s="31"/>
       <c r="B186" s="29"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
       <c r="G186" s="54"/>
     </row>
-    <row r="187" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A187" s="73" t="s">
+    <row r="187" s="2" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A187" s="75" t="s">
         <v>197</v>
       </c>
       <c r="B187" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D187" s="25" t="s">
@@ -4846,11 +5210,12 @@
       <c r="E187" s="25" t="s">
         <v>177</v>
       </c>
+      <c r="F187" s="2"/>
       <c r="G187" s="51" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="188" s="3" customFormat="1" spans="1:7">
+    <row r="188" s="2" customFormat="1" spans="1:7">
       <c r="A188" s="63"/>
       <c r="B188" s="25" t="s">
         <v>7</v>
@@ -4867,7 +5232,7 @@
       <c r="F188" s="25"/>
       <c r="G188" s="50"/>
     </row>
-    <row r="189" s="3" customFormat="1" spans="1:7">
+    <row r="189" s="2" customFormat="1" spans="1:7">
       <c r="A189" s="63"/>
       <c r="B189" s="25" t="s">
         <v>12</v>
@@ -4883,20 +5248,27 @@
       </c>
       <c r="G189" s="50"/>
     </row>
-    <row r="190" s="3" customFormat="1" spans="1:7">
+    <row r="190" s="2" customFormat="1" spans="1:7">
       <c r="A190" s="63"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25" t="s">
         <v>164</v>
       </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
       <c r="G190" s="50"/>
     </row>
-    <row r="191" s="3" customFormat="1" spans="1:7">
-      <c r="A191" s="74"/>
+    <row r="191" s="2" customFormat="1" spans="1:7">
+      <c r="A191" s="76"/>
       <c r="B191" s="25"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
       <c r="G191" s="50"/>
     </row>
-    <row r="192" s="8" customFormat="1" ht="33" spans="1:7">
+    <row r="192" s="7" customFormat="1" ht="33" spans="1:7">
       <c r="A192" s="44" t="s">
         <v>200</v>
       </c>
@@ -4906,54 +5278,56 @@
       <c r="C192" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E192" s="45" t="s">
         <v>57</v>
       </c>
+      <c r="F192" s="7"/>
       <c r="G192" s="61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="193" s="8" customFormat="1" spans="1:7">
+    <row r="193" s="7" customFormat="1" spans="1:7">
       <c r="A193" s="46"/>
       <c r="B193" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="D193" s="7"/>
+      <c r="E193" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G193" s="62"/>
     </row>
-    <row r="194" s="8" customFormat="1" spans="1:7">
+    <row r="194" s="7" customFormat="1" spans="1:7">
       <c r="A194" s="46"/>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G194" s="62"/>
     </row>
-    <row r="195" s="8" customFormat="1" spans="1:7">
+    <row r="195" s="7" customFormat="1" spans="1:7">
       <c r="A195" s="46"/>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>204</v>
       </c>
       <c r="G195" s="62"/>
     </row>
-    <row r="196" s="8" customFormat="1" spans="1:7">
+    <row r="196" s="7" customFormat="1" spans="1:7">
       <c r="A196" s="47"/>
       <c r="G196" s="62"/>
     </row>
-    <row r="197" s="4" customFormat="1" ht="33" spans="1:7">
+    <row r="197" s="3" customFormat="1" ht="33" spans="1:7">
       <c r="A197" s="28" t="s">
         <v>205</v>
       </c>
@@ -4963,6 +5337,7 @@
       <c r="C197" s="29" t="s">
         <v>206</v>
       </c>
+      <c r="D197" s="3"/>
       <c r="E197" s="29" t="s">
         <v>28</v>
       </c>
@@ -4970,7 +5345,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="198" s="4" customFormat="1" spans="1:7">
+    <row r="198" s="3" customFormat="1" spans="1:7">
       <c r="A198" s="30"/>
       <c r="B198" s="29" t="s">
         <v>12</v>
@@ -4978,6 +5353,7 @@
       <c r="C198" s="29" t="s">
         <v>140</v>
       </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="29" t="s">
         <v>28</v>
       </c>
@@ -4986,7 +5362,7 @@
       </c>
       <c r="G198" s="54"/>
     </row>
-    <row r="199" s="4" customFormat="1" spans="1:7">
+    <row r="199" s="3" customFormat="1" spans="1:7">
       <c r="A199" s="30"/>
       <c r="B199" s="29" t="s">
         <v>7</v>
@@ -4994,13 +5370,14 @@
       <c r="C199" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="29" t="s">
         <v>177</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="54"/>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:7">
+    <row r="200" s="3" customFormat="1" spans="1:7">
       <c r="A200" s="30"/>
       <c r="C200" s="29" t="s">
         <v>164</v>
@@ -5008,11 +5385,11 @@
       <c r="E200" s="29"/>
       <c r="G200" s="54"/>
     </row>
-    <row r="201" s="4" customFormat="1" spans="1:7">
+    <row r="201" s="3" customFormat="1" spans="1:7">
       <c r="A201" s="31"/>
       <c r="G201" s="54"/>
     </row>
-    <row r="202" s="5" customFormat="1" ht="66" spans="1:7">
+    <row r="202" s="4" customFormat="1" ht="66" spans="1:7">
       <c r="A202" s="32" t="s">
         <v>209</v>
       </c>
@@ -5022,14 +5399,16 @@
       <c r="C202" s="33" t="s">
         <v>211</v>
       </c>
+      <c r="D202" s="4"/>
       <c r="E202" s="33" t="s">
         <v>22</v>
       </c>
+      <c r="F202" s="4"/>
       <c r="G202" s="55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" s="5" customFormat="1" spans="1:7">
+    <row r="203" s="4" customFormat="1" spans="1:7">
       <c r="A203" s="34"/>
       <c r="B203" s="33" t="s">
         <v>173</v>
@@ -5037,12 +5416,14 @@
       <c r="C203" s="33" t="s">
         <v>91</v>
       </c>
+      <c r="D203" s="4"/>
       <c r="E203" s="33" t="s">
         <v>119</v>
       </c>
+      <c r="F203" s="4"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" s="5" customFormat="1" spans="1:7">
+    <row r="204" s="4" customFormat="1" spans="1:7">
       <c r="A204" s="34"/>
       <c r="B204" s="33" t="s">
         <v>152</v>
@@ -5050,9 +5431,12 @@
       <c r="C204" s="33" t="s">
         <v>94</v>
       </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
       <c r="G204" s="56"/>
     </row>
-    <row r="205" s="5" customFormat="1" spans="1:7">
+    <row r="205" s="4" customFormat="1" spans="1:7">
       <c r="A205" s="34"/>
       <c r="B205" s="33" t="s">
         <v>149</v>
@@ -5062,11 +5446,11 @@
       </c>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" s="5" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="206" s="4" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A206" s="35"/>
       <c r="G206" s="56"/>
     </row>
-    <row r="207" s="5" customFormat="1" ht="33" spans="1:7">
+    <row r="207" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A207" s="32" t="s">
         <v>213</v>
       </c>
@@ -5076,14 +5460,16 @@
       <c r="C207" s="33" t="s">
         <v>145</v>
       </c>
+      <c r="D207" s="4"/>
       <c r="E207" s="33" t="s">
         <v>22</v>
       </c>
+      <c r="F207" s="4"/>
       <c r="G207" s="55" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="208" s="5" customFormat="1" spans="1:7">
+    <row r="208" s="4" customFormat="1" spans="1:7">
       <c r="A208" s="34"/>
       <c r="B208" s="33" t="s">
         <v>12</v>
@@ -5091,97 +5477,103 @@
       <c r="C208" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="D208" s="4"/>
+      <c r="E208" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F208" s="4"/>
       <c r="G208" s="56"/>
     </row>
-    <row r="209" s="5" customFormat="1" spans="1:7">
+    <row r="209" s="4" customFormat="1" spans="1:7">
       <c r="A209" s="34"/>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" s="5" customFormat="1" spans="1:7">
+    <row r="210" s="4" customFormat="1" spans="1:7">
       <c r="A210" s="34"/>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="4" t="s">
         <v>164</v>
       </c>
       <c r="G210" s="56"/>
     </row>
-    <row r="211" s="5" customFormat="1" spans="1:7">
+    <row r="211" s="4" customFormat="1" spans="1:7">
       <c r="A211" s="35"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" s="9" customFormat="1" spans="1:7">
-      <c r="A212" s="77" t="s">
+    <row r="212" s="8" customFormat="1" spans="1:7">
+      <c r="A212" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C212" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D212" s="78" t="s">
+      <c r="D212" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="E212" s="78" t="s">
+      <c r="E212" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="G212" s="84" t="s">
+      <c r="F212" s="8"/>
+      <c r="G212" s="86" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" s="9" customFormat="1" spans="1:7">
-      <c r="A213" s="79"/>
-      <c r="B213" s="78"/>
-      <c r="C213" s="78" t="s">
+    <row r="213" s="8" customFormat="1" spans="1:7">
+      <c r="A213" s="81"/>
+      <c r="B213" s="80"/>
+      <c r="C213" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D213" s="78"/>
-      <c r="E213" s="78" t="s">
+      <c r="D213" s="80"/>
+      <c r="E213" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F213" s="78" t="s">
+      <c r="F213" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G213" s="84" t="s">
+      <c r="G213" s="86" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" s="9" customFormat="1" ht="33" spans="1:7">
-      <c r="A214" s="79"/>
-      <c r="C214" s="78" t="s">
+    <row r="214" s="8" customFormat="1" ht="33" spans="1:7">
+      <c r="A214" s="81"/>
+      <c r="C214" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="D214" s="78"/>
-      <c r="E214" s="78" t="s">
+      <c r="D214" s="80"/>
+      <c r="E214" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="G214" s="85" t="s">
+      <c r="F214" s="8"/>
+      <c r="G214" s="87" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="215" s="9" customFormat="1" spans="1:7">
-      <c r="A215" s="79"/>
-      <c r="D215" s="78"/>
-      <c r="G215" s="86"/>
-    </row>
-    <row r="216" s="9" customFormat="1" spans="1:7">
-      <c r="A216" s="80"/>
-      <c r="C216" s="78"/>
-      <c r="D216" s="78"/>
-      <c r="G216" s="86"/>
-    </row>
-    <row r="217" s="3" customFormat="1" ht="33" spans="1:7">
+    <row r="215" s="8" customFormat="1" spans="1:7">
+      <c r="A215" s="81"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="88"/>
+    </row>
+    <row r="216" s="8" customFormat="1" spans="1:7">
+      <c r="A216" s="82"/>
+      <c r="C216" s="80"/>
+      <c r="D216" s="80"/>
+      <c r="G216" s="88"/>
+    </row>
+    <row r="217" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A217" s="24" t="s">
         <v>220</v>
       </c>
@@ -5191,17 +5583,18 @@
       <c r="C217" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E217" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="F217" s="2"/>
       <c r="G217" s="51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" s="3" customFormat="1" spans="1:7">
+    <row r="218" s="2" customFormat="1" spans="1:7">
       <c r="A218" s="26"/>
       <c r="B218" s="25" t="s">
         <v>210</v>
@@ -5209,6 +5602,7 @@
       <c r="C218" s="25" t="s">
         <v>222</v>
       </c>
+      <c r="D218" s="2"/>
       <c r="E218" s="25" t="s">
         <v>119</v>
       </c>
@@ -5217,22 +5611,26 @@
       </c>
       <c r="G218" s="50"/>
     </row>
-    <row r="219" s="3" customFormat="1" spans="1:7">
+    <row r="219" s="2" customFormat="1" spans="1:7">
       <c r="A219" s="26"/>
       <c r="B219" s="25" t="s">
         <v>173</v>
       </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
       <c r="G219" s="50"/>
     </row>
-    <row r="220" s="3" customFormat="1" spans="1:7">
+    <row r="220" s="2" customFormat="1" spans="1:7">
       <c r="A220" s="26"/>
       <c r="G220" s="50"/>
     </row>
-    <row r="221" s="3" customFormat="1" spans="1:7">
+    <row r="221" s="2" customFormat="1" spans="1:7">
       <c r="A221" s="27"/>
       <c r="G221" s="50"/>
     </row>
-    <row r="222" s="6" customFormat="1" ht="33" spans="1:7">
+    <row r="222" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A222" s="36" t="s">
         <v>223</v>
       </c>
@@ -5248,11 +5646,12 @@
       <c r="E222" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="F222" s="5"/>
       <c r="G222" s="57" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="223" s="6" customFormat="1" spans="1:7">
+    <row r="223" s="5" customFormat="1" spans="1:7">
       <c r="A223" s="38"/>
       <c r="B223" s="37" t="s">
         <v>80</v>
@@ -5260,63 +5659,68 @@
       <c r="C223" s="37" t="s">
         <v>46</v>
       </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
       <c r="G223" s="58"/>
     </row>
-    <row r="224" s="6" customFormat="1" spans="1:7">
+    <row r="224" s="5" customFormat="1" spans="1:7">
       <c r="A224" s="38"/>
       <c r="G224" s="58"/>
     </row>
-    <row r="225" s="6" customFormat="1" spans="1:7">
+    <row r="225" s="5" customFormat="1" spans="1:7">
       <c r="A225" s="38"/>
       <c r="G225" s="58"/>
     </row>
-    <row r="226" s="6" customFormat="1" spans="1:7">
+    <row r="226" s="5" customFormat="1" spans="1:7">
       <c r="A226" s="39"/>
       <c r="G226" s="58"/>
     </row>
-    <row r="227" s="6" customFormat="1" ht="33" spans="1:7">
+    <row r="227" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A227" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C227" s="37" t="s">
         <v>145</v>
       </c>
+      <c r="D227" s="5"/>
       <c r="E227" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="F227" s="5"/>
       <c r="G227" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" s="6" customFormat="1" spans="1:7">
+    <row r="228" s="5" customFormat="1" spans="1:7">
       <c r="A228" s="38"/>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F228" s="6" t="s">
+      <c r="F228" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G228" s="58"/>
     </row>
-    <row r="229" s="6" customFormat="1" spans="1:7">
+    <row r="229" s="5" customFormat="1" spans="1:7">
       <c r="A229" s="38"/>
       <c r="G229" s="58"/>
     </row>
-    <row r="230" s="6" customFormat="1" spans="1:7">
+    <row r="230" s="5" customFormat="1" spans="1:7">
       <c r="A230" s="38"/>
       <c r="G230" s="58"/>
     </row>
-    <row r="231" s="6" customFormat="1" spans="1:7">
+    <row r="231" s="5" customFormat="1" spans="1:7">
       <c r="A231" s="39"/>
       <c r="G231" s="58"/>
     </row>
-    <row r="232" s="4" customFormat="1" spans="1:7">
+    <row r="232" s="3" customFormat="1" spans="1:7">
       <c r="A232" s="28" t="s">
         <v>229</v>
       </c>
@@ -5326,14 +5730,16 @@
       <c r="C232" s="29" t="s">
         <v>171</v>
       </c>
+      <c r="D232" s="3"/>
       <c r="E232" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="F232" s="3"/>
       <c r="G232" s="54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" s="4" customFormat="1" spans="1:7">
+    <row r="233" s="3" customFormat="1" spans="1:7">
       <c r="A233" s="30"/>
       <c r="B233" s="29" t="s">
         <v>153</v>
@@ -5341,6 +5747,7 @@
       <c r="C233" s="29" t="s">
         <v>211</v>
       </c>
+      <c r="D233" s="3"/>
       <c r="E233" s="29" t="s">
         <v>231</v>
       </c>
@@ -5349,7 +5756,7 @@
       </c>
       <c r="G233" s="54"/>
     </row>
-    <row r="234" s="4" customFormat="1" spans="1:7">
+    <row r="234" s="3" customFormat="1" spans="1:7">
       <c r="A234" s="30"/>
       <c r="B234" s="29" t="s">
         <v>173</v>
@@ -5357,41 +5764,47 @@
       <c r="C234" s="29" t="s">
         <v>95</v>
       </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
       <c r="G234" s="54"/>
     </row>
-    <row r="235" s="4" customFormat="1" spans="1:7">
+    <row r="235" s="3" customFormat="1" spans="1:7">
       <c r="A235" s="30"/>
       <c r="B235" s="29" t="s">
         <v>152</v>
       </c>
       <c r="G235" s="54"/>
     </row>
-    <row r="236" s="4" customFormat="1" spans="1:7">
+    <row r="236" s="3" customFormat="1" spans="1:7">
       <c r="A236" s="31"/>
       <c r="G236" s="54"/>
     </row>
-    <row r="237" s="6" customFormat="1" ht="33" spans="1:7">
+    <row r="237" s="5" customFormat="1" ht="33" spans="1:7">
       <c r="A237" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C237" s="37" t="s">
         <v>95</v>
       </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="F237" s="5"/>
       <c r="G237" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" s="6" customFormat="1" spans="1:7">
+    <row r="238" s="5" customFormat="1" spans="1:7">
       <c r="A238" s="38"/>
       <c r="C238" s="37" t="s">
         <v>222</v>
       </c>
+      <c r="D238" s="5"/>
       <c r="E238" s="37" t="s">
         <v>44</v>
       </c>
@@ -5400,22 +5813,25 @@
       </c>
       <c r="G238" s="58"/>
     </row>
-    <row r="239" s="6" customFormat="1" spans="1:7">
+    <row r="239" s="5" customFormat="1" spans="1:7">
       <c r="A239" s="38"/>
       <c r="C239" s="37" t="s">
         <v>235</v>
       </c>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
       <c r="G239" s="58"/>
     </row>
-    <row r="240" s="6" customFormat="1" spans="1:7">
+    <row r="240" s="5" customFormat="1" spans="1:7">
       <c r="A240" s="38"/>
       <c r="G240" s="58"/>
     </row>
-    <row r="241" s="6" customFormat="1" spans="1:7">
+    <row r="241" s="5" customFormat="1" spans="1:7">
       <c r="A241" s="39"/>
       <c r="G241" s="58"/>
     </row>
-    <row r="242" s="5" customFormat="1" ht="33" spans="1:7">
+    <row r="242" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A242" s="32" t="s">
         <v>236</v>
       </c>
@@ -5425,6 +5841,7 @@
       <c r="C242" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="D242" s="4"/>
       <c r="E242" s="33" t="s">
         <v>34</v>
       </c>
@@ -5435,7 +5852,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="1:7">
+    <row r="243" s="4" customFormat="1" spans="1:7">
       <c r="A243" s="34"/>
       <c r="B243" s="33" t="s">
         <v>36</v>
@@ -5443,6 +5860,7 @@
       <c r="C243" s="33" t="s">
         <v>37</v>
       </c>
+      <c r="D243" s="4"/>
       <c r="E243" s="33" t="s">
         <v>34</v>
       </c>
@@ -5451,7 +5869,7 @@
       </c>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" s="5" customFormat="1" spans="1:7">
+    <row r="244" s="4" customFormat="1" spans="1:7">
       <c r="A244" s="34"/>
       <c r="B244" s="33" t="s">
         <v>66</v>
@@ -5459,6 +5877,7 @@
       <c r="C244" s="33" t="s">
         <v>123</v>
       </c>
+      <c r="D244" s="4"/>
       <c r="E244" s="33" t="s">
         <v>98</v>
       </c>
@@ -5467,21 +5886,24 @@
       </c>
       <c r="G244" s="56"/>
     </row>
-    <row r="245" s="5" customFormat="1" spans="1:7">
+    <row r="245" s="4" customFormat="1" spans="1:7">
       <c r="A245" s="34"/>
       <c r="B245" s="33" t="s">
         <v>38</v>
       </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
       <c r="E245" s="33" t="s">
         <v>126</v>
       </c>
+      <c r="F245" s="4"/>
       <c r="G245" s="56"/>
     </row>
-    <row r="246" s="5" customFormat="1" spans="1:7">
+    <row r="246" s="4" customFormat="1" spans="1:7">
       <c r="A246" s="35"/>
       <c r="G246" s="56"/>
     </row>
-    <row r="247" s="7" customFormat="1" ht="33" spans="1:7">
+    <row r="247" s="6" customFormat="1" ht="33" spans="1:7">
       <c r="A247" s="40" t="s">
         <v>238</v>
       </c>
@@ -5491,17 +5913,18 @@
       <c r="C247" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="D247" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E247" s="41" t="s">
         <v>240</v>
       </c>
+      <c r="F247" s="6"/>
       <c r="G247" s="59" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="248" s="7" customFormat="1" spans="1:7">
+    <row r="248" s="6" customFormat="1" spans="1:7">
       <c r="A248" s="42"/>
       <c r="B248" s="41" t="s">
         <v>105</v>
@@ -5509,17 +5932,19 @@
       <c r="C248" s="41" t="s">
         <v>20</v>
       </c>
+      <c r="D248" s="6"/>
       <c r="E248" s="41" t="s">
         <v>64</v>
       </c>
+      <c r="F248" s="6"/>
       <c r="G248" s="60"/>
     </row>
-    <row r="249" s="7" customFormat="1" spans="1:7">
+    <row r="249" s="6" customFormat="1" spans="1:7">
       <c r="A249" s="42"/>
       <c r="B249" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="6" t="s">
         <v>196</v>
       </c>
       <c r="E249" s="41" t="s">
@@ -5527,16 +5952,16 @@
       </c>
       <c r="G249" s="60"/>
     </row>
-    <row r="250" s="7" customFormat="1" spans="1:7">
+    <row r="250" s="6" customFormat="1" spans="1:7">
       <c r="A250" s="42"/>
       <c r="G250" s="60"/>
     </row>
-    <row r="251" s="10" customFormat="1" spans="1:7">
+    <row r="251" s="9" customFormat="1" spans="1:7">
       <c r="A251" s="42"/>
-      <c r="G251" s="87"/>
-    </row>
-    <row r="252" s="11" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A252" s="81" t="s">
+      <c r="G251" s="89"/>
+    </row>
+    <row r="252" s="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A252" s="83" t="s">
         <v>242</v>
       </c>
       <c r="B252" s="41" t="s">
@@ -5545,26 +5970,26 @@
       <c r="C252" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E252" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F252" s="41"/>
-      <c r="G252" s="88" t="s">
+      <c r="G252" s="90" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="253" s="11" customFormat="1" ht="54" spans="1:7">
-      <c r="A253" s="82"/>
+    <row r="253" s="10" customFormat="1" ht="54" spans="1:7">
+      <c r="A253" s="84"/>
       <c r="B253" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C253" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E253" s="41" t="s">
@@ -5573,59 +5998,59 @@
       <c r="F253" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="G253" s="89" t="s">
+      <c r="G253" s="91" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="254" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A254" s="82"/>
+    <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A254" s="84"/>
       <c r="B254" s="41"/>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D254" s="7"/>
+      <c r="D254" s="6"/>
       <c r="E254" s="41"/>
       <c r="F254" s="41"/>
     </row>
-    <row r="255" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A255" s="82"/>
+    <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A255" s="84"/>
       <c r="B255" s="41"/>
       <c r="C255" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="D255" s="7"/>
+      <c r="D255" s="6"/>
       <c r="E255" s="41"/>
       <c r="F255" s="41"/>
     </row>
-    <row r="256" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A256" s="83"/>
+    <row r="256" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A256" s="85"/>
       <c r="B256" s="41"/>
       <c r="C256" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D256" s="7"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="41"/>
       <c r="F256" s="41"/>
     </row>
-    <row r="257" s="12" customFormat="1" spans="1:7">
-      <c r="A257" s="90" t="s">
+    <row r="257" s="11" customFormat="1" spans="1:7">
+      <c r="A257" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="B257" s="91" t="s">
+      <c r="B257" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C257" s="91" t="s">
+      <c r="C257" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D257" s="91" t="s">
+      <c r="D257" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E257" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G257" s="111"/>
-    </row>
-    <row r="258" s="5" customFormat="1" ht="49.5" spans="1:7">
+      <c r="G257" s="112"/>
+    </row>
+    <row r="258" s="4" customFormat="1" ht="49.5" spans="1:7">
       <c r="A258" s="34"/>
       <c r="B258" s="33" t="s">
         <v>60</v>
@@ -5643,993 +6068,1231 @@
         <v>252</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="33" spans="1:7">
+    <row r="259" s="4" customFormat="1" ht="33" spans="1:7">
       <c r="A259" s="34"/>
       <c r="C259" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E259" s="112" t="s">
+      <c r="E259" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="F259" s="112" t="s">
+      <c r="F259" s="113" t="s">
         <v>254</v>
       </c>
       <c r="G259" s="56"/>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:7">
+    <row r="260" s="4" customFormat="1" spans="1:7">
       <c r="A260" s="34"/>
       <c r="G260" s="56"/>
     </row>
-    <row r="261" s="5" customFormat="1" spans="1:7">
+    <row r="261" s="4" customFormat="1" spans="1:7">
       <c r="A261" s="35"/>
       <c r="G261" s="56"/>
     </row>
-    <row r="262" s="8" customFormat="1" ht="66" spans="1:7">
-      <c r="A262" s="92" t="s">
+    <row r="262" s="7" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A262" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F262" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="G262" s="77"/>
+    </row>
+    <row r="263" s="7" customFormat="1" spans="1:7">
+      <c r="A263" s="95"/>
+      <c r="B263" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C262" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E262" s="8" t="s">
+      <c r="C263" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F262" s="113" t="s">
+      <c r="G263" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="G262" s="75" t="s">
+    </row>
+    <row r="264" s="7" customFormat="1" spans="1:7">
+      <c r="A264" s="95"/>
+      <c r="B264" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C264" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G264" s="62"/>
+    </row>
+    <row r="265" s="7" customFormat="1" spans="1:7">
+      <c r="A265" s="95"/>
+      <c r="B265" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G265" s="62"/>
+    </row>
+    <row r="266" s="7" customFormat="1" spans="1:7">
+      <c r="A266" s="96"/>
+      <c r="G266" s="62"/>
+    </row>
+    <row r="267" s="12" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A267" s="97" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="263" s="8" customFormat="1" spans="1:7">
-      <c r="A263" s="93"/>
-      <c r="B263" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G263" s="75" t="s">
+      <c r="G267" s="115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="268" s="12" customFormat="1" spans="1:7">
+      <c r="A268" s="97"/>
+      <c r="G268" s="116" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="264" s="8" customFormat="1" spans="1:7">
-      <c r="A264" s="93"/>
-      <c r="B264" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G264" s="62" t="s">
+    <row r="269" s="12" customFormat="1" spans="1:7">
+      <c r="A269" s="97"/>
+      <c r="G269" s="116"/>
+    </row>
+    <row r="270" s="12" customFormat="1" spans="1:7">
+      <c r="A270" s="97"/>
+      <c r="G270" s="116"/>
+    </row>
+    <row r="271" s="12" customFormat="1" spans="1:7">
+      <c r="A271" s="97"/>
+      <c r="G271" s="116"/>
+    </row>
+    <row r="272" s="12" customFormat="1" spans="1:7">
+      <c r="A272" s="98" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="265" s="8" customFormat="1" spans="1:7">
-      <c r="A265" s="93"/>
-      <c r="G265" s="62"/>
-    </row>
-    <row r="266" s="8" customFormat="1" spans="1:7">
-      <c r="A266" s="94"/>
-      <c r="G266" s="62"/>
-    </row>
-    <row r="267" s="13" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A267" s="95" t="s">
+      <c r="G272" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="G267" s="114" t="s">
+    </row>
+    <row r="273" s="12" customFormat="1" spans="1:7">
+      <c r="A273" s="99"/>
+      <c r="G273" s="116" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" s="12" customFormat="1" spans="1:7">
+      <c r="A274" s="99"/>
+      <c r="G274" s="117"/>
+    </row>
+    <row r="275" s="12" customFormat="1" spans="1:7">
+      <c r="A275" s="99"/>
+      <c r="G275" s="117"/>
+    </row>
+    <row r="276" s="12" customFormat="1" spans="1:7">
+      <c r="A276" s="100"/>
+      <c r="G276" s="117"/>
+    </row>
+    <row r="277" s="12" customFormat="1" spans="1:7">
+      <c r="A277" s="101" t="s">
+        <v>261</v>
+      </c>
+      <c r="G277" s="116" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="278" s="12" customFormat="1" spans="1:7">
+      <c r="A278" s="101"/>
+      <c r="G278" s="117" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" s="12" customFormat="1" spans="1:7">
+      <c r="A279" s="101"/>
+      <c r="G279" s="116" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="280" s="12" customFormat="1" spans="1:7">
+      <c r="A280" s="101"/>
+      <c r="G280" s="117"/>
+    </row>
+    <row r="281" s="12" customFormat="1" spans="1:7">
+      <c r="A281" s="101"/>
+      <c r="G281" s="117"/>
+    </row>
+    <row r="282" s="13" customFormat="1" spans="1:7">
+      <c r="A282" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B282" s="103"/>
+      <c r="G282" s="118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="283" s="13" customFormat="1" spans="1:7">
+      <c r="A283" s="104"/>
+      <c r="B283" s="103"/>
+      <c r="G283" s="118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="284" s="13" customFormat="1" spans="1:7">
+      <c r="A284" s="104"/>
+      <c r="B284" s="103"/>
+      <c r="G284" s="119"/>
+    </row>
+    <row r="285" s="13" customFormat="1" spans="1:7">
+      <c r="A285" s="104"/>
+      <c r="B285" s="103"/>
+      <c r="G285" s="119"/>
+    </row>
+    <row r="286" s="13" customFormat="1" spans="1:7">
+      <c r="A286" s="104"/>
+      <c r="B286" s="103"/>
+      <c r="G286" s="119"/>
+    </row>
+    <row r="287" s="12" customFormat="1" spans="1:7">
+      <c r="A287" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G287" s="116" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="288" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A288" s="105"/>
+      <c r="G288" s="115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="289" s="12" customFormat="1" spans="1:7">
+      <c r="A289" s="105"/>
+      <c r="G289" s="115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="290" s="12" customFormat="1" spans="1:7">
+      <c r="A290" s="105"/>
+      <c r="G290" s="117"/>
+    </row>
+    <row r="291" s="12" customFormat="1" spans="1:7">
+      <c r="A291" s="106"/>
+      <c r="G291" s="117"/>
+    </row>
+    <row r="292" s="12" customFormat="1" spans="1:7">
+      <c r="A292" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="G292" s="116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="293" s="12" customFormat="1" spans="1:7">
+      <c r="A293" s="99"/>
+      <c r="G293" s="115" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" s="12" customFormat="1" spans="1:7">
+      <c r="A294" s="99"/>
+      <c r="G294" s="117"/>
+    </row>
+    <row r="295" s="12" customFormat="1" spans="1:7">
+      <c r="A295" s="99"/>
+      <c r="G295" s="117"/>
+    </row>
+    <row r="296" s="14" customFormat="1" spans="1:7">
+      <c r="A296" s="99"/>
+      <c r="G296" s="120"/>
+    </row>
+    <row r="297" s="15" customFormat="1" spans="1:7">
+      <c r="A297" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="G297" s="121" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298" s="15" customFormat="1" spans="1:7">
+      <c r="A298" s="108"/>
+      <c r="G298" s="121" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" s="15" customFormat="1" spans="1:7">
+      <c r="A299" s="108"/>
+      <c r="G299" s="122"/>
+    </row>
+    <row r="300" s="15" customFormat="1" spans="1:7">
+      <c r="A300" s="108"/>
+      <c r="G300" s="122"/>
+    </row>
+    <row r="301" s="15" customFormat="1" spans="1:7">
+      <c r="A301" s="109"/>
+      <c r="G301" s="122"/>
+    </row>
+    <row r="302" s="11" customFormat="1" spans="1:7">
+      <c r="A302" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="G302" s="123" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" s="4" customFormat="1" spans="1:7">
+      <c r="A303" s="34"/>
+      <c r="G303" s="78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="304" s="4" customFormat="1" spans="1:7">
+      <c r="A304" s="34"/>
+      <c r="G304" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="305" s="4" customFormat="1" spans="1:7">
+      <c r="A305" s="34"/>
+      <c r="G305" s="56"/>
+    </row>
+    <row r="306" s="4" customFormat="1" spans="1:7">
+      <c r="A306" s="34"/>
+      <c r="G306" s="56"/>
+    </row>
+    <row r="307" s="15" customFormat="1" spans="1:7">
+      <c r="A307" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="G307" s="121" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="308" s="15" customFormat="1" spans="1:7">
+      <c r="A308" s="108"/>
+      <c r="G308" s="121" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="309" s="15" customFormat="1" spans="1:7">
+      <c r="A309" s="108"/>
+      <c r="G309" s="122"/>
+    </row>
+    <row r="310" s="15" customFormat="1" spans="1:7">
+      <c r="A310" s="108"/>
+      <c r="G310" s="122"/>
+    </row>
+    <row r="311" s="15" customFormat="1" spans="1:7">
+      <c r="A311" s="109"/>
+      <c r="G311" s="122"/>
+    </row>
+    <row r="312" s="6" customFormat="1" spans="1:7">
+      <c r="A312" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="G312" s="124" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="313" s="6" customFormat="1" spans="1:7">
+      <c r="A313" s="42"/>
+      <c r="G313" s="124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="314" s="6" customFormat="1" spans="1:7">
+      <c r="A314" s="42"/>
+      <c r="G314" s="60"/>
+    </row>
+    <row r="315" s="6" customFormat="1" spans="1:7">
+      <c r="A315" s="42"/>
+      <c r="G315" s="60"/>
+    </row>
+    <row r="316" s="6" customFormat="1" spans="1:7">
+      <c r="A316" s="43"/>
+      <c r="G316" s="60"/>
+    </row>
+    <row r="317" s="16" customFormat="1" spans="1:7">
+      <c r="A317" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="G317" s="125" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="318" s="16" customFormat="1" spans="1:7">
+      <c r="A318" s="111"/>
+      <c r="G318" s="125" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="319" s="16" customFormat="1" spans="1:7">
+      <c r="A319" s="111"/>
+      <c r="G319" s="126"/>
+    </row>
+    <row r="320" s="16" customFormat="1" spans="1:7">
+      <c r="A320" s="111"/>
+      <c r="G320" s="126"/>
+    </row>
+    <row r="321" s="16" customFormat="1" spans="1:7">
+      <c r="A321" s="127"/>
+      <c r="G321" s="126"/>
+    </row>
+    <row r="322" s="16" customFormat="1" spans="1:7">
+      <c r="A322" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="G322" s="125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="323" s="16" customFormat="1" spans="1:7">
+      <c r="A323" s="111"/>
+      <c r="G323" s="126" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="324" s="16" customFormat="1" spans="1:7">
+      <c r="A324" s="111"/>
+      <c r="G324" s="126"/>
+    </row>
+    <row r="325" s="16" customFormat="1" spans="1:7">
+      <c r="A325" s="111"/>
+      <c r="G325" s="126"/>
+    </row>
+    <row r="326" s="16" customFormat="1" spans="1:7">
+      <c r="A326" s="111"/>
+      <c r="G326" s="126"/>
+    </row>
+    <row r="327" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A327" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="B327" s="129"/>
+      <c r="G327" s="152" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="328" s="16" customFormat="1" spans="1:7">
+      <c r="A328" s="130"/>
+      <c r="B328" s="129"/>
+      <c r="G328" s="125" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="329" s="16" customFormat="1" spans="1:7">
+      <c r="A329" s="130"/>
+      <c r="B329" s="129"/>
+      <c r="G329" s="126"/>
+    </row>
+    <row r="330" s="16" customFormat="1" spans="1:7">
+      <c r="A330" s="130"/>
+      <c r="B330" s="129"/>
+      <c r="G330" s="126"/>
+    </row>
+    <row r="331" s="16" customFormat="1" spans="1:7">
+      <c r="A331" s="131"/>
+      <c r="B331" s="129"/>
+      <c r="G331" s="126"/>
+    </row>
+    <row r="332" s="16" customFormat="1" spans="1:7">
+      <c r="A332" s="132" t="s">
+        <v>293</v>
+      </c>
+      <c r="B332" s="129"/>
+      <c r="G332" s="125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="333" s="16" customFormat="1" spans="1:7">
+      <c r="A333" s="130"/>
+      <c r="B333" s="129"/>
+      <c r="G333" s="126" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="334" s="16" customFormat="1" spans="1:7">
+      <c r="A334" s="130"/>
+      <c r="B334" s="129"/>
+      <c r="G334" s="126"/>
+    </row>
+    <row r="335" s="16" customFormat="1" spans="1:7">
+      <c r="A335" s="130"/>
+      <c r="B335" s="129"/>
+      <c r="G335" s="126"/>
+    </row>
+    <row r="336" s="16" customFormat="1" spans="1:7">
+      <c r="A336" s="130"/>
+      <c r="B336" s="129"/>
+      <c r="G336" s="126"/>
+    </row>
+    <row r="337" s="17" customFormat="1" spans="1:7">
+      <c r="A337" s="133" t="s">
+        <v>295</v>
+      </c>
+      <c r="B337" s="134"/>
+      <c r="G337" s="153" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="338" s="17" customFormat="1" spans="1:7">
+      <c r="A338" s="135"/>
+      <c r="B338" s="134"/>
+      <c r="G338" s="153" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="339" s="17" customFormat="1" spans="1:7">
+      <c r="A339" s="135"/>
+      <c r="B339" s="134"/>
+      <c r="G339" s="154"/>
+    </row>
+    <row r="340" s="17" customFormat="1" spans="1:7">
+      <c r="A340" s="135"/>
+      <c r="B340" s="134"/>
+      <c r="G340" s="154"/>
+    </row>
+    <row r="341" s="17" customFormat="1" spans="1:7">
+      <c r="A341" s="136"/>
+      <c r="B341" s="134"/>
+      <c r="G341" s="154"/>
+    </row>
+    <row r="342" s="18" customFormat="1" spans="1:7">
+      <c r="A342" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B342" s="138"/>
+      <c r="C342" s="139" t="s">
+        <v>299</v>
+      </c>
+      <c r="G342" s="155" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="343" s="18" customFormat="1" spans="1:7">
+      <c r="A343" s="140"/>
+      <c r="B343" s="138"/>
+      <c r="G343" s="155" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="344" s="18" customFormat="1" spans="1:7">
+      <c r="A344" s="140"/>
+      <c r="B344" s="138"/>
+      <c r="G344" s="156"/>
+    </row>
+    <row r="345" s="18" customFormat="1" spans="1:7">
+      <c r="A345" s="140"/>
+      <c r="B345" s="138"/>
+      <c r="G345" s="156"/>
+    </row>
+    <row r="346" s="18" customFormat="1" spans="1:7">
+      <c r="A346" s="141"/>
+      <c r="B346" s="138"/>
+      <c r="G346" s="156"/>
+    </row>
+    <row r="347" s="16" customFormat="1" spans="1:7">
+      <c r="A347" s="142" t="s">
+        <v>301</v>
+      </c>
+      <c r="B347" s="129"/>
+      <c r="G347" s="125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="348" s="16" customFormat="1" spans="1:7">
+      <c r="A348" s="143"/>
+      <c r="B348" s="129"/>
+      <c r="G348" s="125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="349" s="16" customFormat="1" spans="1:7">
+      <c r="A349" s="143"/>
+      <c r="B349" s="129"/>
+      <c r="G349" s="126"/>
+    </row>
+    <row r="350" s="16" customFormat="1" spans="1:7">
+      <c r="A350" s="143"/>
+      <c r="B350" s="129"/>
+      <c r="G350" s="126"/>
+    </row>
+    <row r="351" s="16" customFormat="1" spans="1:7">
+      <c r="A351" s="143"/>
+      <c r="B351" s="129"/>
+      <c r="G351" s="126"/>
+    </row>
+    <row r="352" s="16" customFormat="1" spans="1:7">
+      <c r="A352" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B352" s="129"/>
+      <c r="G352" s="126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="353" s="16" customFormat="1" spans="1:7">
+      <c r="A353" s="130"/>
+      <c r="B353" s="129"/>
+      <c r="G353" s="125" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="354" s="16" customFormat="1" spans="1:7">
+      <c r="A354" s="130"/>
+      <c r="B354" s="129"/>
+      <c r="G354" s="126"/>
+    </row>
+    <row r="355" s="16" customFormat="1" spans="1:7">
+      <c r="A355" s="130"/>
+      <c r="B355" s="129"/>
+      <c r="G355" s="126"/>
+    </row>
+    <row r="356" s="16" customFormat="1" spans="1:7">
+      <c r="A356" s="131"/>
+      <c r="B356" s="129"/>
+      <c r="G356" s="126"/>
+    </row>
+    <row r="357" s="19" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A357" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="G357" s="157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="358" s="19" customFormat="1" spans="1:7">
+      <c r="A358" s="146"/>
+      <c r="G358" s="158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="359" s="19" customFormat="1" spans="1:7">
+      <c r="A359" s="146"/>
+      <c r="G359" s="159"/>
+    </row>
+    <row r="360" s="19" customFormat="1" spans="1:7">
+      <c r="A360" s="146"/>
+      <c r="G360" s="159"/>
+    </row>
+    <row r="361" s="19" customFormat="1" spans="1:7">
+      <c r="A361" s="146"/>
+      <c r="G361" s="159"/>
+    </row>
+    <row r="362" s="15" customFormat="1" spans="1:7">
+      <c r="A362" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="G362" s="121" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="363" s="15" customFormat="1" spans="1:7">
+      <c r="A363" s="108"/>
+      <c r="G363" s="122"/>
+    </row>
+    <row r="364" s="15" customFormat="1" spans="1:7">
+      <c r="A364" s="108"/>
+      <c r="G364" s="122"/>
+    </row>
+    <row r="365" s="15" customFormat="1" spans="1:7">
+      <c r="A365" s="108"/>
+      <c r="G365" s="122"/>
+    </row>
+    <row r="366" s="15" customFormat="1" spans="1:7">
+      <c r="A366" s="109"/>
+      <c r="G366" s="122"/>
+    </row>
+    <row r="367" s="6" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A367" s="147" t="s">
+        <v>312</v>
+      </c>
+      <c r="G367" s="59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="268" s="13" customFormat="1" spans="1:7">
-      <c r="A268" s="95"/>
-      <c r="G268" s="115" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="269" s="13" customFormat="1" spans="1:7">
-      <c r="A269" s="95"/>
-      <c r="G269" s="115"/>
-    </row>
-    <row r="270" s="13" customFormat="1" spans="1:7">
-      <c r="A270" s="95"/>
-      <c r="G270" s="115"/>
-    </row>
-    <row r="271" s="13" customFormat="1" spans="1:7">
-      <c r="A271" s="95"/>
-      <c r="G271" s="115"/>
-    </row>
-    <row r="272" s="13" customFormat="1" spans="1:7">
-      <c r="A272" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="G272" s="115" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="273" s="13" customFormat="1" spans="1:7">
-      <c r="A273" s="97"/>
-      <c r="G273" s="115" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="274" s="13" customFormat="1" spans="1:7">
-      <c r="A274" s="97"/>
-      <c r="G274" s="116"/>
-    </row>
-    <row r="275" s="13" customFormat="1" spans="1:7">
-      <c r="A275" s="97"/>
-      <c r="G275" s="116"/>
-    </row>
-    <row r="276" s="13" customFormat="1" spans="1:7">
-      <c r="A276" s="98"/>
-      <c r="G276" s="116"/>
-    </row>
-    <row r="277" s="13" customFormat="1" spans="1:7">
-      <c r="A277" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="G277" s="115" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="278" s="13" customFormat="1" spans="1:7">
-      <c r="A278" s="99"/>
-      <c r="G278" s="116" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="279" s="13" customFormat="1" spans="1:7">
-      <c r="A279" s="99"/>
-      <c r="G279" s="116" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="280" s="13" customFormat="1" spans="1:7">
-      <c r="A280" s="99"/>
-      <c r="G280" s="116"/>
-    </row>
-    <row r="281" s="13" customFormat="1" spans="1:7">
-      <c r="A281" s="99"/>
-      <c r="G281" s="116"/>
-    </row>
-    <row r="282" s="14" customFormat="1" spans="1:7">
-      <c r="A282" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="B282" s="101"/>
-      <c r="G282" s="117" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="283" s="14" customFormat="1" spans="1:7">
-      <c r="A283" s="102"/>
-      <c r="B283" s="101"/>
-      <c r="G283" s="117" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="284" s="14" customFormat="1" spans="1:7">
-      <c r="A284" s="102"/>
-      <c r="B284" s="101"/>
-      <c r="G284" s="118"/>
-    </row>
-    <row r="285" s="14" customFormat="1" spans="1:7">
-      <c r="A285" s="102"/>
-      <c r="B285" s="101"/>
-      <c r="G285" s="118"/>
-    </row>
-    <row r="286" s="14" customFormat="1" spans="1:7">
-      <c r="A286" s="102"/>
-      <c r="B286" s="101"/>
-      <c r="G286" s="118"/>
-    </row>
-    <row r="287" s="13" customFormat="1" spans="1:7">
-      <c r="A287" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="G287" s="115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="288" s="13" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A288" s="103"/>
-      <c r="G288" s="114" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="289" s="13" customFormat="1" spans="1:7">
-      <c r="A289" s="103"/>
-      <c r="G289" s="116"/>
-    </row>
-    <row r="290" s="13" customFormat="1" spans="1:7">
-      <c r="A290" s="103"/>
-      <c r="G290" s="116"/>
-    </row>
-    <row r="291" s="13" customFormat="1" spans="1:7">
-      <c r="A291" s="104"/>
-      <c r="G291" s="116"/>
-    </row>
-    <row r="292" s="13" customFormat="1" spans="1:7">
-      <c r="A292" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="G292" s="115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="293" s="13" customFormat="1" ht="33" spans="1:7">
-      <c r="A293" s="97"/>
-      <c r="G293" s="114" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="294" s="13" customFormat="1" spans="1:7">
-      <c r="A294" s="97"/>
-      <c r="G294" s="116"/>
-    </row>
-    <row r="295" s="13" customFormat="1" spans="1:7">
-      <c r="A295" s="97"/>
-      <c r="G295" s="116"/>
-    </row>
-    <row r="296" s="15" customFormat="1" spans="1:7">
-      <c r="A296" s="97"/>
-      <c r="G296" s="119"/>
-    </row>
-    <row r="297" s="16" customFormat="1" spans="1:7">
-      <c r="A297" s="105" t="s">
-        <v>275</v>
-      </c>
-      <c r="G297" s="120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="298" s="16" customFormat="1" spans="1:7">
-      <c r="A298" s="106"/>
-      <c r="G298" s="120" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="299" s="16" customFormat="1" spans="1:7">
-      <c r="A299" s="106"/>
-      <c r="G299" s="121"/>
-    </row>
-    <row r="300" s="16" customFormat="1" spans="1:7">
-      <c r="A300" s="106"/>
-      <c r="G300" s="121"/>
-    </row>
-    <row r="301" s="16" customFormat="1" spans="1:7">
-      <c r="A301" s="107"/>
-      <c r="G301" s="121"/>
-    </row>
-    <row r="302" s="17" customFormat="1" spans="1:7">
-      <c r="A302" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="G302" s="122" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="303" s="16" customFormat="1" spans="1:7">
-      <c r="A303" s="106"/>
-      <c r="G303" s="120" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="304" s="16" customFormat="1" spans="1:7">
-      <c r="A304" s="106"/>
-      <c r="G304" s="120" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="305" s="16" customFormat="1" spans="1:7">
-      <c r="A305" s="106"/>
-      <c r="G305" s="121"/>
-    </row>
-    <row r="306" s="16" customFormat="1" spans="1:7">
-      <c r="A306" s="106"/>
-      <c r="G306" s="121"/>
-    </row>
-    <row r="307" s="16" customFormat="1" spans="1:7">
-      <c r="A307" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="G307" s="120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="308" s="16" customFormat="1" spans="1:7">
-      <c r="A308" s="106"/>
-      <c r="G308" s="120" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="309" s="16" customFormat="1" spans="1:7">
-      <c r="A309" s="106"/>
-      <c r="G309" s="121"/>
-    </row>
-    <row r="310" s="16" customFormat="1" spans="1:7">
-      <c r="A310" s="106"/>
-      <c r="G310" s="121"/>
-    </row>
-    <row r="311" s="16" customFormat="1" spans="1:7">
-      <c r="A311" s="107"/>
-      <c r="G311" s="121"/>
-    </row>
-    <row r="312" s="16" customFormat="1" spans="1:7">
-      <c r="A312" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="G312" s="120" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="313" s="16" customFormat="1" spans="1:7">
-      <c r="A313" s="106"/>
-      <c r="G313" s="120" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="314" s="16" customFormat="1" spans="1:7">
-      <c r="A314" s="106"/>
-      <c r="G314" s="121" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="315" s="16" customFormat="1" spans="1:7">
-      <c r="A315" s="106"/>
-      <c r="G315" s="121"/>
-    </row>
-    <row r="316" s="16" customFormat="1" spans="1:7">
-      <c r="A316" s="107"/>
-      <c r="G316" s="121"/>
-    </row>
-    <row r="317" s="18" customFormat="1" spans="1:7">
-      <c r="A317" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="G317" s="123" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="318" s="18" customFormat="1" spans="1:7">
-      <c r="A318" s="110"/>
-      <c r="G318" s="123" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="319" s="18" customFormat="1" spans="1:7">
-      <c r="A319" s="110"/>
-      <c r="G319" s="124"/>
-    </row>
-    <row r="320" s="18" customFormat="1" spans="1:7">
-      <c r="A320" s="110"/>
-      <c r="G320" s="124"/>
-    </row>
-    <row r="321" s="18" customFormat="1" spans="1:7">
-      <c r="A321" s="125"/>
-      <c r="G321" s="124"/>
-    </row>
-    <row r="322" s="18" customFormat="1" spans="1:7">
-      <c r="A322" s="109" t="s">
-        <v>289</v>
-      </c>
-      <c r="G322" s="123" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="323" s="18" customFormat="1" spans="1:7">
-      <c r="A323" s="110"/>
-      <c r="G323" s="124" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="324" s="18" customFormat="1" spans="1:7">
-      <c r="A324" s="110"/>
-      <c r="G324" s="124"/>
-    </row>
-    <row r="325" s="18" customFormat="1" spans="1:7">
-      <c r="A325" s="110"/>
-      <c r="G325" s="124"/>
-    </row>
-    <row r="326" s="18" customFormat="1" spans="1:7">
-      <c r="A326" s="110"/>
-      <c r="G326" s="124"/>
-    </row>
-    <row r="327" s="18" customFormat="1" spans="1:7">
-      <c r="A327" s="126" t="s">
-        <v>291</v>
-      </c>
-      <c r="B327" s="127"/>
-      <c r="G327" s="140" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="328" s="18" customFormat="1" spans="1:7">
-      <c r="A328" s="128"/>
-      <c r="B328" s="127"/>
-      <c r="G328" s="123" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="329" s="18" customFormat="1" spans="1:7">
-      <c r="A329" s="128"/>
-      <c r="B329" s="127"/>
-      <c r="G329" s="124"/>
-    </row>
-    <row r="330" s="18" customFormat="1" spans="1:7">
-      <c r="A330" s="128"/>
-      <c r="B330" s="127"/>
-      <c r="G330" s="124"/>
-    </row>
-    <row r="331" s="18" customFormat="1" spans="1:7">
-      <c r="A331" s="129"/>
-      <c r="B331" s="127"/>
-      <c r="G331" s="124"/>
-    </row>
-    <row r="332" s="18" customFormat="1" spans="1:7">
-      <c r="A332" s="130" t="s">
-        <v>293</v>
-      </c>
-      <c r="B332" s="127"/>
-      <c r="G332" s="123" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="333" s="18" customFormat="1" spans="1:7">
-      <c r="A333" s="128"/>
-      <c r="B333" s="127"/>
-      <c r="G333" s="124" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="334" s="18" customFormat="1" spans="1:7">
-      <c r="A334" s="128"/>
-      <c r="B334" s="127"/>
-      <c r="G334" s="124"/>
-    </row>
-    <row r="335" s="18" customFormat="1" spans="1:7">
-      <c r="A335" s="128"/>
-      <c r="B335" s="127"/>
-      <c r="G335" s="124"/>
-    </row>
-    <row r="336" s="18" customFormat="1" spans="1:7">
-      <c r="A336" s="129"/>
-      <c r="B336" s="127"/>
-      <c r="G336" s="124"/>
-    </row>
-    <row r="337" s="19" customFormat="1" spans="1:7">
-      <c r="A337" s="131" t="s">
-        <v>295</v>
-      </c>
-      <c r="B337" s="132"/>
-      <c r="G337" s="141" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="338" s="19" customFormat="1" spans="1:7">
-      <c r="A338" s="133"/>
-      <c r="B338" s="132"/>
-      <c r="G338" s="141" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="339" s="19" customFormat="1" spans="1:7">
-      <c r="A339" s="133"/>
-      <c r="B339" s="132"/>
-      <c r="G339" s="142"/>
-    </row>
-    <row r="340" s="19" customFormat="1" spans="1:7">
-      <c r="A340" s="133"/>
-      <c r="B340" s="132"/>
-      <c r="G340" s="142"/>
-    </row>
-    <row r="341" s="19" customFormat="1" spans="1:7">
-      <c r="A341" s="134"/>
-      <c r="B341" s="132"/>
-      <c r="G341" s="142"/>
-    </row>
-    <row r="342" s="18" customFormat="1" spans="1:7">
-      <c r="A342" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="B342" s="127"/>
-      <c r="G342" s="123" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="343" s="18" customFormat="1" spans="1:7">
-      <c r="A343" s="136"/>
-      <c r="B343" s="127"/>
-      <c r="G343" s="123" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="344" s="18" customFormat="1" spans="1:7">
-      <c r="A344" s="136"/>
-      <c r="B344" s="127"/>
-      <c r="G344" s="124"/>
-    </row>
-    <row r="345" s="18" customFormat="1" spans="1:7">
-      <c r="A345" s="136"/>
-      <c r="B345" s="127"/>
-      <c r="G345" s="124"/>
-    </row>
-    <row r="346" s="18" customFormat="1" spans="1:7">
-      <c r="A346" s="136"/>
-      <c r="B346" s="127"/>
-      <c r="G346" s="124"/>
-    </row>
-    <row r="347" s="20" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A347" s="137" t="s">
-        <v>301</v>
-      </c>
-      <c r="G347" s="143" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="348" s="20" customFormat="1" ht="33" spans="1:7">
-      <c r="A348" s="138"/>
-      <c r="G348" s="144" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="349" s="20" customFormat="1" spans="1:7">
-      <c r="A349" s="138"/>
-      <c r="G349" s="145"/>
-    </row>
-    <row r="350" s="20" customFormat="1" spans="1:7">
-      <c r="A350" s="138"/>
-      <c r="G350" s="145"/>
-    </row>
-    <row r="351" s="20" customFormat="1" spans="1:7">
-      <c r="A351" s="138"/>
-      <c r="G351" s="145"/>
-    </row>
-    <row r="352" s="16" customFormat="1" spans="1:7">
-      <c r="A352" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="G352" s="120" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="353" s="16" customFormat="1" spans="1:7">
-      <c r="A353" s="106"/>
-      <c r="G353" s="121"/>
-    </row>
-    <row r="354" s="16" customFormat="1" spans="1:7">
-      <c r="A354" s="106"/>
-      <c r="G354" s="121"/>
-    </row>
-    <row r="355" s="16" customFormat="1" spans="1:7">
-      <c r="A355" s="106"/>
-      <c r="G355" s="121"/>
-    </row>
-    <row r="356" s="16" customFormat="1" spans="1:7">
-      <c r="A356" s="107"/>
-      <c r="G356" s="121"/>
-    </row>
-    <row r="357" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A357" s="139" t="s">
-        <v>306</v>
-      </c>
-      <c r="G357" s="146" t="s">
+    <row r="368" s="6" customFormat="1" spans="1:7">
+      <c r="A368" s="42"/>
+      <c r="G368" s="124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="369" s="6" customFormat="1" spans="1:7">
+      <c r="A369" s="42"/>
+      <c r="G369" s="60"/>
+    </row>
+    <row r="370" s="6" customFormat="1" spans="1:7">
+      <c r="A370" s="42"/>
+      <c r="G370" s="60"/>
+    </row>
+    <row r="371" s="6" customFormat="1" spans="1:7">
+      <c r="A371" s="42"/>
+      <c r="G371" s="60"/>
+    </row>
+    <row r="372" s="20" customFormat="1" spans="1:7">
+      <c r="A372" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="B372" s="149"/>
+      <c r="G372" s="160" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="373" s="20" customFormat="1" spans="1:7">
+      <c r="A373" s="150"/>
+      <c r="B373" s="149"/>
+      <c r="G373" s="160" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="374" s="20" customFormat="1" spans="1:7">
+      <c r="A374" s="150"/>
+      <c r="B374" s="149"/>
+      <c r="G374" s="161"/>
+    </row>
+    <row r="375" s="20" customFormat="1" spans="1:7">
+      <c r="A375" s="150"/>
+      <c r="B375" s="149"/>
+      <c r="G375" s="161"/>
+    </row>
+    <row r="376" s="20" customFormat="1" spans="1:7">
+      <c r="A376" s="150"/>
+      <c r="B376" s="149"/>
+      <c r="G376" s="161"/>
+    </row>
+    <row r="377" s="15" customFormat="1" spans="1:7">
+      <c r="A377" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="G377" s="121" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="378" s="15" customFormat="1" spans="1:7">
+      <c r="A378" s="108"/>
+      <c r="G378" s="121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="379" s="15" customFormat="1" spans="1:7">
+      <c r="A379" s="108"/>
+      <c r="G379" s="122"/>
+    </row>
+    <row r="380" s="15" customFormat="1" spans="1:7">
+      <c r="A380" s="108"/>
+      <c r="G380" s="122"/>
+    </row>
+    <row r="381" s="15" customFormat="1" spans="1:7">
+      <c r="A381" s="109"/>
+      <c r="G381" s="122"/>
+    </row>
+    <row r="382" s="2" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A382" s="151" t="s">
+        <v>320</v>
+      </c>
+      <c r="G382" s="51" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="358" s="16" customFormat="1" spans="1:7">
-      <c r="A358" s="106"/>
-      <c r="G358" s="121" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="359" s="16" customFormat="1" spans="1:7">
-      <c r="A359" s="106"/>
-      <c r="G359" s="121"/>
-    </row>
-    <row r="360" s="16" customFormat="1" spans="1:7">
-      <c r="A360" s="106"/>
-      <c r="G360" s="121"/>
-    </row>
-    <row r="361" s="16" customFormat="1" spans="1:7">
-      <c r="A361" s="106"/>
-      <c r="G361" s="121"/>
-    </row>
-    <row r="362" s="16" customFormat="1" spans="1:7">
-      <c r="A362" s="105" t="s">
-        <v>308</v>
-      </c>
-      <c r="G362" s="120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="363" s="16" customFormat="1" spans="1:7">
-      <c r="A363" s="106"/>
-      <c r="G363" s="120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="364" s="16" customFormat="1" spans="1:7">
-      <c r="A364" s="106"/>
-      <c r="G364" s="121"/>
-    </row>
-    <row r="365" s="16" customFormat="1" spans="1:7">
-      <c r="A365" s="106"/>
-      <c r="G365" s="121"/>
-    </row>
-    <row r="366" s="16" customFormat="1" spans="1:7">
-      <c r="A366" s="107"/>
-      <c r="G366" s="121"/>
-    </row>
-    <row r="367" s="16" customFormat="1" spans="1:7">
-      <c r="A367" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="G367" s="120" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="368" s="16" customFormat="1" spans="1:7">
-      <c r="A368" s="106"/>
-      <c r="G368" s="120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="369" s="16" customFormat="1" spans="1:7">
-      <c r="A369" s="106"/>
-      <c r="G369" s="121"/>
-    </row>
-    <row r="370" s="16" customFormat="1" spans="1:7">
-      <c r="A370" s="106"/>
-      <c r="G370" s="121"/>
-    </row>
-    <row r="371" s="16" customFormat="1" spans="1:7">
-      <c r="A371" s="107"/>
-      <c r="G371" s="121"/>
-    </row>
-    <row r="372" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A372" s="139" t="s">
-        <v>313</v>
-      </c>
-      <c r="G372" s="146" t="s">
+    <row r="383" s="2" customFormat="1" spans="1:7">
+      <c r="A383" s="26"/>
+      <c r="G383" s="162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="384" s="2" customFormat="1" spans="1:7">
+      <c r="A384" s="26"/>
+      <c r="G384" s="50"/>
+    </row>
+    <row r="385" s="2" customFormat="1" spans="1:7">
+      <c r="A385" s="26"/>
+      <c r="G385" s="50"/>
+    </row>
+    <row r="386" s="2" customFormat="1" spans="1:7">
+      <c r="A386" s="26"/>
+      <c r="G386" s="50"/>
+    </row>
+    <row r="387" s="15" customFormat="1" spans="1:7">
+      <c r="A387" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="G387" s="121" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="388" s="15" customFormat="1" spans="1:7">
+      <c r="A388" s="108"/>
+      <c r="G388" s="122"/>
+    </row>
+    <row r="389" s="15" customFormat="1" spans="1:7">
+      <c r="A389" s="108"/>
+      <c r="G389" s="122"/>
+    </row>
+    <row r="390" s="15" customFormat="1" spans="1:7">
+      <c r="A390" s="108"/>
+      <c r="G390" s="122"/>
+    </row>
+    <row r="391" s="15" customFormat="1" spans="1:7">
+      <c r="A391" s="108"/>
+      <c r="G391" s="122"/>
+    </row>
+    <row r="392" s="3" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A392" s="163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B392" s="164"/>
+      <c r="G392" s="53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="373" s="16" customFormat="1" spans="1:7">
-      <c r="A373" s="106"/>
-      <c r="G373" s="121" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="374" s="16" customFormat="1" spans="1:7">
-      <c r="A374" s="106"/>
-      <c r="G374" s="121"/>
-    </row>
-    <row r="375" s="16" customFormat="1" spans="1:7">
-      <c r="A375" s="106"/>
-      <c r="G375" s="121"/>
-    </row>
-    <row r="376" s="16" customFormat="1" spans="1:7">
-      <c r="A376" s="106"/>
-      <c r="G376" s="121"/>
-    </row>
-    <row r="377" s="16" customFormat="1" spans="1:7">
-      <c r="A377" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="G377" s="120" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="378" s="16" customFormat="1" spans="1:7">
-      <c r="A378" s="106"/>
-      <c r="G378" s="121"/>
-    </row>
-    <row r="379" s="16" customFormat="1" spans="1:7">
-      <c r="A379" s="106"/>
-      <c r="G379" s="121"/>
-    </row>
-    <row r="380" s="16" customFormat="1" spans="1:7">
-      <c r="A380" s="106"/>
-      <c r="G380" s="121"/>
-    </row>
-    <row r="381" s="16" customFormat="1" spans="1:7">
-      <c r="A381" s="107"/>
-      <c r="G381" s="121"/>
-    </row>
-    <row r="382" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A382" s="139" t="s">
-        <v>317</v>
-      </c>
-      <c r="G382" s="146" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="383" s="16" customFormat="1" spans="1:7">
-      <c r="A383" s="106"/>
-      <c r="G383" s="121" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="384" s="16" customFormat="1" spans="1:7">
-      <c r="A384" s="106"/>
-      <c r="G384" s="121"/>
-    </row>
-    <row r="385" s="16" customFormat="1" spans="1:7">
-      <c r="A385" s="106"/>
-      <c r="G385" s="121"/>
-    </row>
-    <row r="386" s="16" customFormat="1" spans="1:7">
-      <c r="A386" s="106"/>
-      <c r="G386" s="121"/>
-    </row>
-    <row r="387" s="16" customFormat="1" spans="1:7">
-      <c r="A387" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="G387" s="120" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="388" s="16" customFormat="1" spans="1:7">
-      <c r="A388" s="106"/>
-      <c r="G388" s="121" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="389" s="16" customFormat="1" spans="1:7">
-      <c r="A389" s="106"/>
-      <c r="G389" s="121"/>
-    </row>
-    <row r="390" s="16" customFormat="1" spans="1:7">
-      <c r="A390" s="106"/>
-      <c r="G390" s="121"/>
-    </row>
-    <row r="391" s="16" customFormat="1" spans="1:7">
-      <c r="A391" s="106"/>
-      <c r="G391" s="121"/>
-    </row>
-    <row r="392" s="16" customFormat="1" spans="1:7">
-      <c r="A392" s="105" t="s">
-        <v>322</v>
-      </c>
-      <c r="G392" s="120" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="393" s="16" customFormat="1" spans="1:7">
-      <c r="A393" s="106"/>
-      <c r="G393" s="120" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="394" s="16" customFormat="1" spans="1:7">
-      <c r="A394" s="106"/>
-      <c r="G394" s="121"/>
-    </row>
-    <row r="395" s="16" customFormat="1" spans="1:7">
-      <c r="A395" s="106"/>
-      <c r="G395" s="121"/>
-    </row>
-    <row r="396" s="16" customFormat="1" spans="1:7">
-      <c r="A396" s="107"/>
-      <c r="G396" s="121"/>
-    </row>
-    <row r="397" s="16" customFormat="1" spans="1:7">
-      <c r="A397" s="105" t="s">
+    <row r="393" s="3" customFormat="1" spans="1:7">
+      <c r="A393" s="165"/>
+      <c r="B393" s="164"/>
+      <c r="G393" s="170" t="s">
         <v>325</v>
       </c>
-      <c r="G397" s="120" t="s">
+    </row>
+    <row r="394" s="3" customFormat="1" spans="1:7">
+      <c r="A394" s="165"/>
+      <c r="B394" s="164"/>
+      <c r="G394" s="54"/>
+    </row>
+    <row r="395" s="3" customFormat="1" spans="1:7">
+      <c r="A395" s="165"/>
+      <c r="B395" s="164"/>
+      <c r="G395" s="54"/>
+    </row>
+    <row r="396" s="3" customFormat="1" spans="1:7">
+      <c r="A396" s="165"/>
+      <c r="B396" s="164"/>
+      <c r="G396" s="54"/>
+    </row>
+    <row r="397" s="15" customFormat="1" spans="1:7">
+      <c r="A397" s="166" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="398" s="16" customFormat="1" spans="1:7">
-      <c r="A398" s="106"/>
-      <c r="G398" s="121" t="s">
+      <c r="G397" s="121" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="399" s="16" customFormat="1" spans="1:7">
-      <c r="A399" s="106"/>
-      <c r="G399" s="121"/>
-    </row>
-    <row r="400" s="16" customFormat="1" spans="1:7">
-      <c r="A400" s="106"/>
-      <c r="G400" s="121"/>
-    </row>
-    <row r="401" s="16" customFormat="1" spans="1:7">
-      <c r="A401" s="107"/>
-      <c r="G401" s="121"/>
-    </row>
-    <row r="402" s="16" customFormat="1" spans="1:7">
-      <c r="A402" s="139" t="s">
+    <row r="398" s="15" customFormat="1" spans="1:7">
+      <c r="A398" s="108"/>
+      <c r="G398" s="122" t="s">
         <v>328</v>
       </c>
+    </row>
+    <row r="399" s="15" customFormat="1" spans="1:7">
+      <c r="A399" s="108"/>
+      <c r="G399" s="122"/>
+    </row>
+    <row r="400" s="15" customFormat="1" spans="1:7">
+      <c r="A400" s="108"/>
+      <c r="G400" s="122"/>
+    </row>
+    <row r="401" s="15" customFormat="1" spans="1:7">
+      <c r="A401" s="108"/>
+      <c r="G401" s="122"/>
+    </row>
+    <row r="402" s="15" customFormat="1" spans="1:7">
+      <c r="A402" s="107" t="s">
+        <v>329</v>
+      </c>
       <c r="G402" s="121" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="403" s="16" customFormat="1" spans="1:7">
-      <c r="A403" s="106"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="403" s="15" customFormat="1" spans="1:7">
+      <c r="A403" s="108"/>
       <c r="G403" s="121" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="404" s="16" customFormat="1" spans="1:7">
-      <c r="A404" s="106"/>
-      <c r="G404" s="121"/>
-    </row>
-    <row r="405" s="16" customFormat="1" spans="1:7">
-      <c r="A405" s="106"/>
-      <c r="G405" s="121"/>
-    </row>
-    <row r="406" s="16" customFormat="1" spans="1:7">
-      <c r="A406" s="106"/>
-      <c r="G406" s="121"/>
-    </row>
-    <row r="407" s="16" customFormat="1" spans="1:7">
-      <c r="A407" s="105" t="s">
         <v>331</v>
       </c>
-      <c r="G407" s="120" t="s">
+    </row>
+    <row r="404" s="15" customFormat="1" spans="1:7">
+      <c r="A404" s="108"/>
+      <c r="G404" s="122"/>
+    </row>
+    <row r="405" s="15" customFormat="1" spans="1:7">
+      <c r="A405" s="108"/>
+      <c r="G405" s="122"/>
+    </row>
+    <row r="406" s="15" customFormat="1" spans="1:7">
+      <c r="A406" s="109"/>
+      <c r="G406" s="122"/>
+    </row>
+    <row r="407" s="15" customFormat="1" spans="1:7">
+      <c r="A407" s="107" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="408" s="16" customFormat="1" spans="1:7">
-      <c r="A408" s="106"/>
-      <c r="G408" s="120" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="409" s="16" customFormat="1" spans="1:7">
-      <c r="A409" s="106"/>
-      <c r="G409" s="121"/>
-    </row>
-    <row r="410" s="16" customFormat="1" spans="1:7">
-      <c r="A410" s="106"/>
-      <c r="G410" s="121"/>
-    </row>
-    <row r="411" s="16" customFormat="1" spans="1:7">
-      <c r="A411" s="107"/>
-      <c r="G411" s="121"/>
-    </row>
-    <row r="412" s="16" customFormat="1" spans="1:7">
-      <c r="A412" s="105" t="s">
+      <c r="G407" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="G412" s="120" t="s">
+    </row>
+    <row r="408" s="15" customFormat="1" spans="1:7">
+      <c r="A408" s="108"/>
+      <c r="G408" s="121" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="413" s="16" customFormat="1" spans="1:7">
-      <c r="A413" s="106"/>
-      <c r="G413" s="120" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="414" s="16" customFormat="1" spans="1:7">
-      <c r="A414" s="106"/>
-      <c r="G414" s="121"/>
-    </row>
-    <row r="415" s="16" customFormat="1" spans="1:7">
-      <c r="A415" s="106"/>
-      <c r="G415" s="121"/>
-    </row>
-    <row r="416" s="16" customFormat="1" spans="1:7">
-      <c r="A416" s="107"/>
-      <c r="G416" s="121"/>
-    </row>
-    <row r="417" s="16" customFormat="1" spans="1:7">
-      <c r="A417" s="139" t="s">
+    <row r="409" s="15" customFormat="1" spans="1:7">
+      <c r="A409" s="108"/>
+      <c r="G409" s="122"/>
+    </row>
+    <row r="410" s="15" customFormat="1" spans="1:7">
+      <c r="A410" s="108"/>
+      <c r="G410" s="122"/>
+    </row>
+    <row r="411" s="15" customFormat="1" spans="1:7">
+      <c r="A411" s="109"/>
+      <c r="G411" s="122"/>
+    </row>
+    <row r="412" s="15" customFormat="1" spans="1:7">
+      <c r="A412" s="167" t="s">
         <v>335</v>
       </c>
+      <c r="G412" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="413" s="15" customFormat="1" spans="1:7">
+      <c r="A413" s="108"/>
+      <c r="G413" s="122" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="414" s="15" customFormat="1" spans="1:7">
+      <c r="A414" s="108"/>
+      <c r="G414" s="122"/>
+    </row>
+    <row r="415" s="15" customFormat="1" spans="1:7">
+      <c r="A415" s="108"/>
+      <c r="G415" s="122"/>
+    </row>
+    <row r="416" s="15" customFormat="1" spans="1:7">
+      <c r="A416" s="108"/>
+      <c r="G416" s="122"/>
+    </row>
+    <row r="417" s="15" customFormat="1" spans="1:7">
+      <c r="A417" s="107" t="s">
+        <v>338</v>
+      </c>
       <c r="G417" s="121" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="418" s="16" customFormat="1" spans="1:7">
-      <c r="A418" s="106"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="418" s="15" customFormat="1" spans="1:7">
+      <c r="A418" s="108"/>
       <c r="G418" s="121" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="419" s="16" customFormat="1" spans="1:7">
-      <c r="A419" s="106"/>
-      <c r="G419" s="121"/>
-    </row>
-    <row r="420" s="16" customFormat="1" spans="1:7">
-      <c r="A420" s="106"/>
-      <c r="G420" s="121"/>
-    </row>
-    <row r="421" s="16" customFormat="1" spans="1:7">
-      <c r="A421" s="106"/>
-      <c r="G421" s="121"/>
-    </row>
-    <row r="422" s="16" customFormat="1" spans="1:7">
-      <c r="A422" s="105" t="s">
-        <v>338</v>
-      </c>
-      <c r="B422" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="419" s="15" customFormat="1" spans="1:7">
+      <c r="A419" s="108"/>
+      <c r="G419" s="122"/>
+    </row>
+    <row r="420" s="15" customFormat="1" spans="1:7">
+      <c r="A420" s="108"/>
+      <c r="G420" s="122"/>
+    </row>
+    <row r="421" s="15" customFormat="1" spans="1:7">
+      <c r="A421" s="109"/>
+      <c r="G421" s="122"/>
+    </row>
+    <row r="422" s="15" customFormat="1" spans="1:7">
+      <c r="A422" s="107" t="s">
+        <v>341</v>
       </c>
       <c r="G422" s="121" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="423" s="16" customFormat="1" spans="1:7">
-      <c r="A423" s="106"/>
-      <c r="B423" s="16" t="s">
-        <v>341</v>
-      </c>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="423" s="15" customFormat="1" spans="1:7">
+      <c r="A423" s="108"/>
       <c r="G423" s="121" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="424" s="16" customFormat="1" spans="1:7">
-      <c r="A424" s="106"/>
-      <c r="G424" s="121"/>
-    </row>
-    <row r="425" s="16" customFormat="1" spans="1:7">
-      <c r="A425" s="106"/>
-      <c r="G425" s="121"/>
-    </row>
-    <row r="426" s="16" customFormat="1" spans="1:7">
-      <c r="A426" s="107"/>
-      <c r="G426" s="121"/>
-    </row>
-    <row r="427" s="16" customFormat="1" spans="1:7">
-      <c r="A427" s="105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="424" s="15" customFormat="1" spans="1:7">
+      <c r="A424" s="108"/>
+      <c r="G424" s="122"/>
+    </row>
+    <row r="425" s="15" customFormat="1" spans="1:7">
+      <c r="A425" s="108"/>
+      <c r="G425" s="122"/>
+    </row>
+    <row r="426" s="15" customFormat="1" spans="1:7">
+      <c r="A426" s="109"/>
+      <c r="G426" s="122"/>
+    </row>
+    <row r="427" s="15" customFormat="1" spans="1:7">
+      <c r="A427" s="167" t="s">
         <v>343</v>
       </c>
-      <c r="G427" s="120" t="s">
+      <c r="G427" s="122" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="428" s="16" customFormat="1" spans="1:7">
-      <c r="A428" s="106"/>
-      <c r="G428" s="120" t="s">
+    <row r="428" s="15" customFormat="1" spans="1:7">
+      <c r="A428" s="108"/>
+      <c r="G428" s="122" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="429" s="16" customFormat="1" spans="1:7">
-      <c r="A429" s="106"/>
-      <c r="G429" s="121"/>
-    </row>
-    <row r="430" s="16" customFormat="1" spans="1:7">
-      <c r="A430" s="106"/>
-      <c r="G430" s="121"/>
-    </row>
-    <row r="431" s="16" customFormat="1" spans="1:7">
-      <c r="A431" s="107"/>
-      <c r="G431" s="121"/>
-    </row>
-    <row r="432" ht="66" spans="1:7">
-      <c r="A432" s="105" t="s">
+    <row r="429" s="15" customFormat="1" spans="1:7">
+      <c r="A429" s="108"/>
+      <c r="G429" s="122"/>
+    </row>
+    <row r="430" s="15" customFormat="1" spans="1:7">
+      <c r="A430" s="108"/>
+      <c r="G430" s="122"/>
+    </row>
+    <row r="431" s="15" customFormat="1" spans="1:7">
+      <c r="A431" s="108"/>
+      <c r="G431" s="122"/>
+    </row>
+    <row r="432" s="15" customFormat="1" spans="1:7">
+      <c r="A432" s="168" t="s">
         <v>346</v>
       </c>
-      <c r="G432" s="147" t="s">
+      <c r="B432" s="169"/>
+      <c r="G432" s="122" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="106"/>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="106"/>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="106"/>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="107"/>
+    <row r="433" s="15" customFormat="1" spans="1:7">
+      <c r="A433" s="143"/>
+      <c r="B433" s="169"/>
+      <c r="G433" s="122" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="434" s="15" customFormat="1" spans="1:7">
+      <c r="A434" s="143"/>
+      <c r="B434" s="169"/>
+      <c r="G434" s="122"/>
+    </row>
+    <row r="435" s="15" customFormat="1" spans="1:7">
+      <c r="A435" s="143"/>
+      <c r="B435" s="169"/>
+      <c r="G435" s="122"/>
+    </row>
+    <row r="436" s="15" customFormat="1" spans="1:7">
+      <c r="A436" s="143"/>
+      <c r="B436" s="169"/>
+      <c r="G436" s="122"/>
+    </row>
+    <row r="437" s="15" customFormat="1" spans="1:7">
+      <c r="A437" s="168" t="s">
+        <v>349</v>
+      </c>
+      <c r="B437" s="169"/>
+      <c r="G437" s="122" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="438" s="15" customFormat="1" spans="1:7">
+      <c r="A438" s="143"/>
+      <c r="B438" s="169"/>
+      <c r="G438" s="122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="439" s="15" customFormat="1" spans="1:7">
+      <c r="A439" s="143"/>
+      <c r="B439" s="169"/>
+      <c r="G439" s="122"/>
+    </row>
+    <row r="440" s="15" customFormat="1" spans="1:7">
+      <c r="A440" s="143"/>
+      <c r="B440" s="169"/>
+      <c r="G440" s="122"/>
+    </row>
+    <row r="441" s="15" customFormat="1" spans="1:7">
+      <c r="A441" s="143"/>
+      <c r="B441" s="169"/>
+      <c r="G441" s="122"/>
+    </row>
+    <row r="442" s="15" customFormat="1" spans="1:7">
+      <c r="A442" s="168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B442" s="169"/>
+      <c r="G442" s="122" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="443" s="15" customFormat="1" spans="1:7">
+      <c r="A443" s="143"/>
+      <c r="B443" s="169"/>
+      <c r="G443" s="122"/>
+    </row>
+    <row r="444" s="15" customFormat="1" spans="1:7">
+      <c r="A444" s="143"/>
+      <c r="B444" s="169"/>
+      <c r="G444" s="122"/>
+    </row>
+    <row r="445" s="15" customFormat="1" spans="1:7">
+      <c r="A445" s="143"/>
+      <c r="B445" s="169"/>
+      <c r="G445" s="122"/>
+    </row>
+    <row r="446" s="15" customFormat="1" spans="1:7">
+      <c r="A446" s="143"/>
+      <c r="B446" s="169"/>
+      <c r="G446" s="122"/>
+    </row>
+    <row r="447" s="15" customFormat="1" spans="1:7">
+      <c r="A447" s="168" t="s">
+        <v>354</v>
+      </c>
+      <c r="B447" s="169"/>
+      <c r="G447" s="122"/>
+    </row>
+    <row r="448" s="15" customFormat="1" spans="1:7">
+      <c r="A448" s="143"/>
+      <c r="B448" s="169"/>
+      <c r="G448" s="122"/>
+    </row>
+    <row r="449" s="15" customFormat="1" spans="1:7">
+      <c r="A449" s="143"/>
+      <c r="B449" s="169"/>
+      <c r="G449" s="122"/>
+    </row>
+    <row r="450" s="15" customFormat="1" spans="1:7">
+      <c r="A450" s="143"/>
+      <c r="B450" s="169"/>
+      <c r="G450" s="122"/>
+    </row>
+    <row r="451" s="15" customFormat="1" spans="1:7">
+      <c r="A451" s="143"/>
+      <c r="B451" s="169"/>
+      <c r="G451" s="122"/>
+    </row>
+    <row r="452" s="15" customFormat="1" spans="1:7">
+      <c r="A452" s="142" t="s">
+        <v>355</v>
+      </c>
+      <c r="B452" s="169" t="s">
+        <v>356</v>
+      </c>
+      <c r="C452" s="15"/>
+      <c r="D452" s="15"/>
+      <c r="E452" s="15"/>
+      <c r="F452" s="15"/>
+      <c r="G452" s="122" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="453" s="15" customFormat="1" spans="1:7">
+      <c r="A453" s="143"/>
+      <c r="B453" s="169" t="s">
+        <v>358</v>
+      </c>
+      <c r="C453" s="15"/>
+      <c r="D453" s="15"/>
+      <c r="E453" s="15"/>
+      <c r="F453" s="15"/>
+      <c r="G453" s="122" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="454" s="15" customFormat="1" spans="1:7">
+      <c r="A454" s="143"/>
+      <c r="B454" s="169"/>
+      <c r="G454" s="122"/>
+    </row>
+    <row r="455" s="15" customFormat="1" spans="1:7">
+      <c r="A455" s="143"/>
+      <c r="B455" s="169"/>
+      <c r="G455" s="122"/>
+    </row>
+    <row r="456" s="15" customFormat="1" spans="1:7">
+      <c r="A456" s="143"/>
+      <c r="B456" s="169"/>
+      <c r="G456" s="122"/>
+    </row>
+    <row r="457" s="15" customFormat="1" spans="1:7">
+      <c r="A457" s="166" t="s">
+        <v>360</v>
+      </c>
+      <c r="G457" s="121" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="458" s="15" customFormat="1" spans="1:7">
+      <c r="A458" s="108"/>
+      <c r="G458" s="121" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="459" s="15" customFormat="1" spans="1:7">
+      <c r="A459" s="108"/>
+      <c r="G459" s="122"/>
+    </row>
+    <row r="460" s="15" customFormat="1" spans="1:7">
+      <c r="A460" s="108"/>
+      <c r="G460" s="122"/>
+    </row>
+    <row r="461" s="15" customFormat="1" spans="1:7">
+      <c r="A461" s="109"/>
+      <c r="G461" s="122"/>
+    </row>
+    <row r="462" ht="66" spans="1:7">
+      <c r="A462" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="G462" s="174" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="108"/>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="108"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="108"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="109"/>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="171" t="s">
+        <v>365</v>
+      </c>
+      <c r="G467" s="175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="468" ht="33" spans="1:7">
+      <c r="A468" s="172"/>
+      <c r="G468" s="175" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="172"/>
+      <c r="G469" s="176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="172"/>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="173"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="88">
+  <mergeCells count="95">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6718,6 +7381,13 @@
     <mergeCell ref="A422:A426"/>
     <mergeCell ref="A427:A431"/>
     <mergeCell ref="A432:A436"/>
+    <mergeCell ref="A437:A441"/>
+    <mergeCell ref="A442:A446"/>
+    <mergeCell ref="A447:A451"/>
+    <mergeCell ref="A452:A456"/>
+    <mergeCell ref="A457:A461"/>
+    <mergeCell ref="A462:A466"/>
+    <mergeCell ref="A467:A471"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E247" r:id="rId1" display="来歆余响" tooltip="https://genshin.honeyhunterworld.com/db/art/family/a_15024/?lang=CHS"/>
@@ -6730,7 +7400,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
-    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
       <cellprotection/>
     </woSheetProps>
   </woSheetsProps>
@@ -6742,8 +7412,8 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
